--- a/cSingsSummTargetOpposit/seed_23_11_30.xlsx
+++ b/cSingsSummTargetOpposit/seed_23_11_30.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="seedTrainTest" sheetId="29" r:id="rId1"/>
@@ -37539,7 +37539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N64" sqref="N64"/>
+      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37592,7 +37592,7 @@
         <v>179</v>
       </c>
       <c r="L2">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>9</v>
@@ -37604,28 +37604,24 @@
         <v>139</v>
       </c>
       <c r="P2">
-        <v>-77</v>
+        <v>-83</v>
       </c>
       <c r="Q2">
-        <v>-23</v>
-      </c>
-      <c r="R2">
-        <f>X3</f>
-        <v>383555</v>
+        <v>-511</v>
       </c>
       <c r="W2">
         <f>MAX(T73:T196)</f>
-        <v>1121921</v>
+        <v>1030576</v>
       </c>
       <c r="X2">
         <f>MIN(T6:T135)</f>
-        <v>-1521393</v>
+        <v>-481547</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="W3">
         <f>(MAX(ABS(W2),ABS(X2))-MIN(ABS(W2),ABS(X2)))/2</f>
-        <v>199736</v>
+        <v>274514.5</v>
       </c>
       <c r="X3">
         <v>383555</v>
@@ -37634,15 +37630,15 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U4">
         <f>W4+X4</f>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="W4">
         <f>SUM(W6:W72)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <f>W135</f>
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -37675,11 +37671,11 @@
       </c>
       <c r="U5">
         <f>MIN(X5,X135)</f>
-        <v>33051</v>
+        <v>1164</v>
       </c>
       <c r="X5">
         <f>MIN(X6:X72)</f>
-        <v>38870</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -37713,17 +37709,17 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4">
         <f>C6*K$2+D6*L$2+E6*M$2+F6*N$2+G6*O$2+H6*P$2+I6*Q$2+R$2</f>
-        <v>2318186</v>
+        <v>699723</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6">
         <f>IF(T6&gt;W$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f>IF(W6=0,W$2-T6,W$2)</f>
-        <v>1121921</v>
+        <v>330853</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -37756,17 +37752,17 @@
       </c>
       <c r="T7" s="4">
         <f t="shared" ref="T7:T70" si="0">C7*K$2+D7*L$2+E7*M$2+F7*N$2+G7*O$2+H7*P$2+I7*Q$2+R$2</f>
-        <v>1882078</v>
+        <v>545789</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7">
         <f t="shared" ref="W7:W70" si="1">IF(T7&gt;W$2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" ref="X7:X70" si="2">IF(W7=0,W$2-T7,W$2)</f>
-        <v>1121921</v>
+        <v>484787</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -37799,17 +37795,17 @@
       </c>
       <c r="T8" s="4">
         <f t="shared" si="0"/>
-        <v>1819779</v>
+        <v>801316</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>229260</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -37842,17 +37838,17 @@
       </c>
       <c r="T9" s="4">
         <f t="shared" si="0"/>
-        <v>2537666</v>
+        <v>1019247</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -37885,17 +37881,17 @@
       </c>
       <c r="T10" s="4">
         <f t="shared" si="0"/>
-        <v>2556648</v>
+        <v>655123</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>375453</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -37928,17 +37924,17 @@
       </c>
       <c r="T11" s="4">
         <f t="shared" si="0"/>
-        <v>1456299</v>
+        <v>551704</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>478872</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -37971,17 +37967,17 @@
       </c>
       <c r="T12" s="4">
         <f t="shared" si="0"/>
-        <v>2077555</v>
+        <v>1004906</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>25670</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -38014,17 +38010,17 @@
       </c>
       <c r="T13" s="4">
         <f t="shared" si="0"/>
-        <v>2023098</v>
+        <v>152323</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>878253</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -38057,17 +38053,17 @@
       </c>
       <c r="T14" s="4">
         <f t="shared" si="0"/>
-        <v>1877742</v>
+        <v>548587</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>481989</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -38100,17 +38096,17 @@
       </c>
       <c r="T15" s="4">
         <f t="shared" si="0"/>
-        <v>1783889</v>
+        <v>917844</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>112732</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -38143,17 +38139,17 @@
       </c>
       <c r="T16" s="4">
         <f t="shared" si="0"/>
-        <v>2114018</v>
+        <v>677979</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>352597</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -38186,17 +38182,17 @@
       </c>
       <c r="T17" s="4">
         <f t="shared" si="0"/>
-        <v>1493327</v>
+        <v>468450</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>562126</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -38229,17 +38225,17 @@
       </c>
       <c r="T18" s="4">
         <f t="shared" si="0"/>
-        <v>1672948</v>
+        <v>218363</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>812213</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -38272,17 +38268,17 @@
       </c>
       <c r="T19" s="4">
         <f t="shared" si="0"/>
-        <v>1807410</v>
+        <v>799717</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>230859</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -38315,17 +38311,17 @@
       </c>
       <c r="T20" s="4">
         <f t="shared" si="0"/>
-        <v>1551182</v>
+        <v>456273</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>574303</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -38358,17 +38354,17 @@
       </c>
       <c r="T21" s="4">
         <f t="shared" si="0"/>
-        <v>1840307</v>
+        <v>371730</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>658846</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -38401,17 +38397,17 @@
       </c>
       <c r="T22" s="4">
         <f t="shared" si="0"/>
-        <v>1631712</v>
+        <v>48103</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>982473</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -38444,7 +38440,7 @@
       </c>
       <c r="T23" s="10">
         <f t="shared" si="0"/>
-        <v>1083051</v>
+        <v>334840</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -38454,7 +38450,7 @@
       </c>
       <c r="X23">
         <f t="shared" si="2"/>
-        <v>38870</v>
+        <v>695736</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -38487,17 +38483,17 @@
       </c>
       <c r="T24" s="4">
         <f t="shared" si="0"/>
-        <v>1905275</v>
+        <v>790272</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>240304</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -38530,17 +38526,17 @@
       </c>
       <c r="T25" s="4">
         <f t="shared" si="0"/>
-        <v>1987986</v>
+        <v>687895</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>342681</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -38573,17 +38569,17 @@
       </c>
       <c r="T26" s="4">
         <f t="shared" si="0"/>
-        <v>2200856</v>
+        <v>704925</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>325651</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -38616,17 +38612,17 @@
       </c>
       <c r="T27" s="4">
         <f t="shared" si="0"/>
-        <v>1591979</v>
+        <v>572436</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>458140</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -38659,17 +38655,17 @@
       </c>
       <c r="T28" s="4">
         <f t="shared" si="0"/>
-        <v>2435709</v>
+        <v>724492</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>306084</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -38702,17 +38698,17 @@
       </c>
       <c r="T29" s="4">
         <f t="shared" si="0"/>
-        <v>2001826</v>
+        <v>528563</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>502013</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -38745,17 +38741,17 @@
       </c>
       <c r="T30" s="4">
         <f t="shared" si="0"/>
-        <v>1829456</v>
+        <v>571725</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>458851</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -38788,17 +38784,17 @@
       </c>
       <c r="T31" s="4">
         <f t="shared" si="0"/>
-        <v>1848811</v>
+        <v>582278</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>448298</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -38831,17 +38827,17 @@
       </c>
       <c r="T32" s="4">
         <f t="shared" si="0"/>
-        <v>2465369</v>
+        <v>414438</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>616138</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -38874,17 +38870,17 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" si="0"/>
-        <v>2019001</v>
+        <v>463484</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>567092</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -38917,17 +38913,17 @@
       </c>
       <c r="T34" s="4">
         <f t="shared" si="0"/>
-        <v>1906126</v>
+        <v>488027</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>542549</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -38960,17 +38956,17 @@
       </c>
       <c r="T35" s="4">
         <f t="shared" si="0"/>
-        <v>2089289</v>
+        <v>523476</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>507100</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -39003,17 +38999,17 @@
       </c>
       <c r="T36" s="4">
         <f t="shared" si="0"/>
-        <v>1321025</v>
+        <v>220506</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>810070</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -39046,17 +39042,17 @@
       </c>
       <c r="T37" s="4">
         <f t="shared" si="0"/>
-        <v>1435563</v>
+        <v>243526</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>787050</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -39089,17 +39085,17 @@
       </c>
       <c r="T38" s="4">
         <f t="shared" si="0"/>
-        <v>2089812</v>
+        <v>910765</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>119811</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -39132,17 +39128,17 @@
       </c>
       <c r="T39" s="4">
         <f t="shared" si="0"/>
-        <v>1126529</v>
+        <v>40746</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>989830</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -39175,17 +39171,17 @@
       </c>
       <c r="T40" s="4">
         <f t="shared" si="0"/>
-        <v>1285548</v>
+        <v>236191</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>794385</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -39218,7 +39214,7 @@
       </c>
       <c r="T41" s="10">
         <f t="shared" si="0"/>
-        <v>1001085</v>
+        <v>110518</v>
       </c>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -39228,7 +39224,7 @@
       </c>
       <c r="X41">
         <f t="shared" si="2"/>
-        <v>120836</v>
+        <v>920058</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -39261,17 +39257,17 @@
       </c>
       <c r="T42" s="4">
         <f t="shared" si="0"/>
-        <v>1384803</v>
+        <v>130888</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>899688</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -39304,17 +39300,17 @@
       </c>
       <c r="T43" s="4">
         <f t="shared" si="0"/>
-        <v>1751217</v>
+        <v>578182</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>452394</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -39347,7 +39343,7 @@
       </c>
       <c r="T44" s="4">
         <f t="shared" si="0"/>
-        <v>652632</v>
+        <v>-155963</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -39357,7 +39353,7 @@
       </c>
       <c r="X44">
         <f t="shared" si="2"/>
-        <v>469289</v>
+        <v>1186539</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -39390,17 +39386,17 @@
       </c>
       <c r="T45" s="4">
         <f t="shared" si="0"/>
-        <v>1934199</v>
+        <v>706756</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>323820</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -39433,17 +39429,17 @@
       </c>
       <c r="T46" s="4">
         <f t="shared" si="0"/>
-        <v>1768378</v>
+        <v>946955</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>83621</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -39476,17 +39472,17 @@
       </c>
       <c r="T47" s="4">
         <f t="shared" si="0"/>
-        <v>1697364</v>
+        <v>341371</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>689205</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -39519,17 +39515,17 @@
       </c>
       <c r="T48" s="4">
         <f t="shared" si="0"/>
-        <v>2526542</v>
+        <v>585453</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>445123</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -39564,17 +39560,17 @@
       <c r="K49" s="2"/>
       <c r="T49" s="4">
         <f>C49*K$2+D49*L$2+E49*M$2+F49*N$2+G49*O$2+H49*P$2+I49*Q$2+R$2</f>
-        <v>1123631</v>
+        <v>283254</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="11">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>747322</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -39609,17 +39605,17 @@
       <c r="K50" s="2"/>
       <c r="T50" s="4">
         <f t="shared" si="0"/>
-        <v>2673665</v>
+        <v>927060</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>103516</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -39654,7 +39650,7 @@
       <c r="K51" s="2"/>
       <c r="T51" s="4">
         <f t="shared" si="0"/>
-        <v>848508</v>
+        <v>9889</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -39664,7 +39660,7 @@
       </c>
       <c r="X51">
         <f t="shared" si="2"/>
-        <v>273413</v>
+        <v>1020687</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -39699,17 +39695,17 @@
       <c r="K52" s="2"/>
       <c r="T52" s="4">
         <f t="shared" si="0"/>
-        <v>2536589</v>
+        <v>798630</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>231946</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -39744,17 +39740,17 @@
       <c r="K53" s="2"/>
       <c r="T53" s="4">
         <f t="shared" si="0"/>
-        <v>1838802</v>
+        <v>90991</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>939585</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -39789,17 +39785,17 @@
       <c r="K54" s="2"/>
       <c r="T54" s="4">
         <f t="shared" si="0"/>
-        <v>2157257</v>
+        <v>628932</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>401644</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -39834,17 +39830,17 @@
       <c r="K55" s="2"/>
       <c r="T55" s="4">
         <f t="shared" si="0"/>
-        <v>1583120</v>
+        <v>567801</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>462775</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -39879,7 +39875,7 @@
       <c r="K56" s="2"/>
       <c r="T56" s="4">
         <f t="shared" si="0"/>
-        <v>1028541</v>
+        <v>379822</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
@@ -39889,7 +39885,7 @@
       </c>
       <c r="X56">
         <f t="shared" si="2"/>
-        <v>93380</v>
+        <v>650754</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -39924,7 +39920,7 @@
       <c r="K57" s="2"/>
       <c r="T57" s="4">
         <f t="shared" si="0"/>
-        <v>681746</v>
+        <v>-259785</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -39934,7 +39930,7 @@
       </c>
       <c r="X57">
         <f t="shared" si="2"/>
-        <v>440175</v>
+        <v>1290361</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -39969,17 +39965,17 @@
       <c r="K58" s="2"/>
       <c r="T58" s="4">
         <f t="shared" si="0"/>
-        <v>2654595</v>
+        <v>1029412</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
@@ -40014,17 +40010,17 @@
       <c r="K59" s="2"/>
       <c r="T59" s="4">
         <f t="shared" si="0"/>
-        <v>2201954</v>
+        <v>665997</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>364579</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -40059,17 +40055,17 @@
       <c r="K60" s="2"/>
       <c r="T60" s="4">
         <f t="shared" si="0"/>
-        <v>1506961</v>
+        <v>503108</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>527468</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
@@ -40104,17 +40100,17 @@
       <c r="K61" s="2"/>
       <c r="T61" s="4">
         <f t="shared" si="0"/>
-        <v>1722444</v>
+        <v>406441</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>624135</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
@@ -40149,17 +40145,17 @@
       <c r="K62" s="2"/>
       <c r="T62" s="4">
         <f t="shared" si="0"/>
-        <v>1147300</v>
+        <v>103229</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>927347</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
@@ -40194,17 +40190,17 @@
       <c r="K63" s="2"/>
       <c r="T63" s="4">
         <f t="shared" si="0"/>
-        <v>2075568</v>
+        <v>121531</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>909045</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
@@ -40239,17 +40235,17 @@
       <c r="K64" s="2"/>
       <c r="T64" s="4">
         <f t="shared" si="0"/>
-        <v>1816705</v>
+        <v>-58984</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64">
         <f t="shared" si="2"/>
-        <v>1121921</v>
+        <v>1089560</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -40284,7 +40280,7 @@
       <c r="K65" s="2"/>
       <c r="T65" s="4">
         <f t="shared" si="0"/>
-        <v>367812</v>
+        <v>-481547</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
@@ -40294,7 +40290,7 @@
       </c>
       <c r="X65">
         <f t="shared" si="2"/>
-        <v>754109</v>
+        <v>1512123</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -40329,7 +40325,7 @@
       <c r="K66" s="2"/>
       <c r="T66" s="4">
         <f t="shared" si="0"/>
-        <v>601973</v>
+        <v>-76554</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -40339,7 +40335,7 @@
       </c>
       <c r="X66">
         <f t="shared" si="2"/>
-        <v>519948</v>
+        <v>1107130</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -40374,7 +40370,7 @@
       <c r="K67" s="2"/>
       <c r="T67" s="4">
         <f t="shared" si="0"/>
-        <v>688141</v>
+        <v>146168</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -40384,7 +40380,7 @@
       </c>
       <c r="X67">
         <f t="shared" si="2"/>
-        <v>433780</v>
+        <v>884408</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -40419,7 +40415,7 @@
       <c r="K68" s="2"/>
       <c r="T68" s="4">
         <f t="shared" si="0"/>
-        <v>554354</v>
+        <v>-162243</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
@@ -40429,7 +40425,7 @@
       </c>
       <c r="X68">
         <f t="shared" si="2"/>
-        <v>567567</v>
+        <v>1192819</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -40464,7 +40460,7 @@
       <c r="K69" s="2"/>
       <c r="T69" s="4">
         <f t="shared" si="0"/>
-        <v>366218</v>
+        <v>-404853</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
@@ -40474,7 +40470,7 @@
       </c>
       <c r="X69">
         <f t="shared" si="2"/>
-        <v>755703</v>
+        <v>1435429</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -40509,7 +40505,7 @@
       <c r="K70" s="2"/>
       <c r="T70" s="4">
         <f t="shared" si="0"/>
-        <v>582967</v>
+        <v>-322648</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
@@ -40519,7 +40515,7 @@
       </c>
       <c r="X70">
         <f t="shared" si="2"/>
-        <v>538954</v>
+        <v>1353224</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -40554,7 +40550,7 @@
       <c r="K71" s="2"/>
       <c r="T71" s="4">
         <f t="shared" ref="T71:T134" si="3">C71*K$2+D71*L$2+E71*M$2+F71*N$2+G71*O$2+H71*P$2+I71*Q$2+R$2</f>
-        <v>426447</v>
+        <v>616096</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -40564,7 +40560,7 @@
       </c>
       <c r="X71">
         <f t="shared" ref="X71:X72" si="5">IF(W71=0,W$2-T71,W$2)</f>
-        <v>695474</v>
+        <v>414480</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -40607,7 +40603,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="4">
         <f t="shared" si="3"/>
-        <v>244651</v>
+        <v>21536</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
@@ -40617,7 +40613,7 @@
       </c>
       <c r="X72">
         <f t="shared" si="5"/>
-        <v>877270</v>
+        <v>1009040</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -40650,7 +40646,7 @@
       </c>
       <c r="T73" s="4">
         <f t="shared" si="3"/>
-        <v>1121921</v>
+        <v>194934</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
@@ -40685,7 +40681,7 @@
       </c>
       <c r="T74" s="4">
         <f t="shared" si="3"/>
-        <v>1121341</v>
+        <v>771410</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -40720,7 +40716,7 @@
       </c>
       <c r="T75" s="4">
         <f t="shared" si="3"/>
-        <v>980674</v>
+        <v>576629</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -40755,7 +40751,7 @@
       </c>
       <c r="T76" s="4">
         <f t="shared" si="3"/>
-        <v>810261</v>
+        <v>408076</v>
       </c>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
@@ -40790,7 +40786,7 @@
       </c>
       <c r="T77" s="4">
         <f t="shared" si="3"/>
-        <v>825627</v>
+        <v>972778</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -40825,7 +40821,7 @@
       </c>
       <c r="T78" s="4">
         <f t="shared" si="3"/>
-        <v>748815</v>
+        <v>1030576</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -40860,7 +40856,7 @@
       </c>
       <c r="T79" s="4">
         <f t="shared" si="3"/>
-        <v>460387</v>
+        <v>82310</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
@@ -40895,7 +40891,7 @@
       </c>
       <c r="T80" s="4">
         <f t="shared" si="3"/>
-        <v>570420</v>
+        <v>801151</v>
       </c>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
@@ -40930,7 +40926,7 @@
       </c>
       <c r="T81" s="4">
         <f t="shared" si="3"/>
-        <v>509764</v>
+        <v>604043</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -40965,7 +40961,7 @@
       </c>
       <c r="T82" s="4">
         <f t="shared" si="3"/>
-        <v>488236</v>
+        <v>577811</v>
       </c>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
@@ -41000,7 +40996,7 @@
       </c>
       <c r="T83" s="4">
         <f t="shared" si="3"/>
-        <v>489675</v>
+        <v>551392</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
@@ -41035,7 +41031,7 @@
       </c>
       <c r="T84" s="4">
         <f t="shared" si="3"/>
-        <v>564669</v>
+        <v>920812</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -41070,7 +41066,7 @@
       </c>
       <c r="T85" s="4">
         <f t="shared" si="3"/>
-        <v>393091</v>
+        <v>292658</v>
       </c>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -41105,7 +41101,7 @@
       </c>
       <c r="T86" s="4">
         <f t="shared" si="3"/>
-        <v>329396</v>
+        <v>106383</v>
       </c>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
@@ -41140,7 +41136,7 @@
       </c>
       <c r="T87" s="4">
         <f t="shared" si="3"/>
-        <v>286951</v>
+        <v>200594</v>
       </c>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
@@ -41175,7 +41171,7 @@
       </c>
       <c r="T88" s="4">
         <f t="shared" si="3"/>
-        <v>204111</v>
+        <v>-71162</v>
       </c>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
@@ -41210,7 +41206,7 @@
       </c>
       <c r="T89" s="4">
         <f t="shared" si="3"/>
-        <v>452553</v>
+        <v>872524</v>
       </c>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
@@ -41245,7 +41241,7 @@
       </c>
       <c r="T90" s="4">
         <f t="shared" si="3"/>
-        <v>350910</v>
+        <v>536929</v>
       </c>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
@@ -41280,7 +41276,7 @@
       </c>
       <c r="T91" s="4">
         <f t="shared" si="3"/>
-        <v>179161</v>
+        <v>161894</v>
       </c>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
@@ -41315,7 +41311,7 @@
       </c>
       <c r="T92" s="4">
         <f t="shared" si="3"/>
-        <v>343553</v>
+        <v>851142</v>
       </c>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
@@ -41350,7 +41346,7 @@
       </c>
       <c r="T93" s="4">
         <f t="shared" si="3"/>
-        <v>236993</v>
+        <v>413226</v>
       </c>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
@@ -41385,7 +41381,7 @@
       </c>
       <c r="T94" s="4">
         <f t="shared" si="3"/>
-        <v>232698</v>
+        <v>558895</v>
       </c>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
@@ -41420,7 +41416,7 @@
       </c>
       <c r="T95" s="4">
         <f t="shared" si="3"/>
-        <v>136471</v>
+        <v>376274</v>
       </c>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
@@ -41455,7 +41451,7 @@
       </c>
       <c r="T96" s="4">
         <f t="shared" si="3"/>
-        <v>52888</v>
+        <v>70385</v>
       </c>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
@@ -41490,7 +41486,7 @@
       </c>
       <c r="T97" s="4">
         <f t="shared" si="3"/>
-        <v>142688</v>
+        <v>417741</v>
       </c>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
@@ -41525,7 +41521,7 @@
       </c>
       <c r="T98" s="4">
         <f t="shared" si="3"/>
-        <v>-13938</v>
+        <v>-172697</v>
       </c>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
@@ -41560,7 +41556,7 @@
       </c>
       <c r="T99" s="4">
         <f t="shared" si="3"/>
-        <v>36395</v>
+        <v>150744</v>
       </c>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
@@ -41595,7 +41591,7 @@
       </c>
       <c r="T100" s="4">
         <f t="shared" si="3"/>
-        <v>-45516</v>
+        <v>-43091</v>
       </c>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
@@ -41630,7 +41626,7 @@
       </c>
       <c r="T101" s="4">
         <f t="shared" si="3"/>
-        <v>-23339</v>
+        <v>206576</v>
       </c>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
@@ -41665,7 +41661,7 @@
       </c>
       <c r="T102" s="4">
         <f t="shared" si="3"/>
-        <v>-45571</v>
+        <v>142914</v>
       </c>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
@@ -41700,7 +41696,7 @@
       </c>
       <c r="T103" s="4">
         <f t="shared" si="3"/>
-        <v>-39248</v>
+        <v>228683</v>
       </c>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
@@ -41735,7 +41731,7 @@
       </c>
       <c r="T104" s="4">
         <f t="shared" si="3"/>
-        <v>-4722</v>
+        <v>383131</v>
       </c>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
@@ -41770,7 +41766,7 @@
       </c>
       <c r="T105" s="4">
         <f t="shared" si="3"/>
-        <v>-130121</v>
+        <v>10316</v>
       </c>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
@@ -41805,7 +41801,7 @@
       </c>
       <c r="T106" s="4">
         <f t="shared" si="3"/>
-        <v>-130217</v>
+        <v>-2740</v>
       </c>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
@@ -41840,7 +41836,7 @@
       </c>
       <c r="T107" s="4">
         <f t="shared" si="3"/>
-        <v>-86206</v>
+        <v>326019</v>
       </c>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
@@ -41875,7 +41871,7 @@
       </c>
       <c r="T108" s="4">
         <f t="shared" si="3"/>
-        <v>-82448</v>
+        <v>372521</v>
       </c>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
@@ -41910,7 +41906,7 @@
       </c>
       <c r="T109" s="4">
         <f t="shared" si="3"/>
-        <v>-59326</v>
+        <v>471999</v>
       </c>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
@@ -41945,7 +41941,7 @@
       </c>
       <c r="T110" s="4">
         <f t="shared" si="3"/>
-        <v>-110932</v>
+        <v>363483</v>
       </c>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
@@ -41980,7 +41976,7 @@
       </c>
       <c r="T111" s="4">
         <f t="shared" si="3"/>
-        <v>-128988</v>
+        <v>346393</v>
       </c>
       <c r="U111" s="4"/>
       <c r="V111" s="4"/>
@@ -42015,7 +42011,7 @@
       </c>
       <c r="T112" s="4">
         <f t="shared" si="3"/>
-        <v>41104</v>
+        <v>1026047</v>
       </c>
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
@@ -42052,7 +42048,7 @@
       <c r="K113" s="2"/>
       <c r="T113" s="4">
         <f t="shared" si="3"/>
-        <v>-159522</v>
+        <v>572965</v>
       </c>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
@@ -42087,7 +42083,7 @@
       </c>
       <c r="T114" s="4">
         <f t="shared" si="3"/>
-        <v>-235818</v>
+        <v>308899</v>
       </c>
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
@@ -42122,7 +42118,7 @@
       </c>
       <c r="T115" s="4">
         <f t="shared" si="3"/>
-        <v>-143089</v>
+        <v>627798</v>
       </c>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
@@ -42157,7 +42153,7 @@
       </c>
       <c r="T116" s="4">
         <f t="shared" si="3"/>
-        <v>-174116</v>
+        <v>603791</v>
       </c>
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
@@ -42192,7 +42188,7 @@
       </c>
       <c r="T117" s="4">
         <f t="shared" si="3"/>
-        <v>-429849</v>
+        <v>-191882</v>
       </c>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
@@ -42227,7 +42223,7 @@
       </c>
       <c r="T118" s="4">
         <f t="shared" si="3"/>
-        <v>-404326</v>
+        <v>25335</v>
       </c>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
@@ -42262,7 +42258,7 @@
       </c>
       <c r="T119" s="4">
         <f t="shared" si="3"/>
-        <v>-417054</v>
+        <v>-81467</v>
       </c>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
@@ -42297,7 +42293,7 @@
       </c>
       <c r="T120" s="4">
         <f t="shared" si="3"/>
-        <v>-290011</v>
+        <v>444678</v>
       </c>
       <c r="U120" s="4"/>
       <c r="V120" s="4"/>
@@ -42332,7 +42328,7 @@
       </c>
       <c r="T121" s="4">
         <f t="shared" si="3"/>
-        <v>-413134</v>
+        <v>30573</v>
       </c>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
@@ -42367,7 +42363,7 @@
       </c>
       <c r="T122" s="4">
         <f t="shared" si="3"/>
-        <v>-318900</v>
+        <v>539533</v>
       </c>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
@@ -42402,7 +42398,7 @@
       </c>
       <c r="T123" s="4">
         <f t="shared" si="3"/>
-        <v>-624213</v>
+        <v>-263006</v>
       </c>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
@@ -42437,7 +42433,7 @@
       </c>
       <c r="T124" s="4">
         <f t="shared" si="3"/>
-        <v>-547698</v>
+        <v>257395</v>
       </c>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
@@ -42472,7 +42468,7 @@
       </c>
       <c r="T125" s="4">
         <f t="shared" si="3"/>
-        <v>-625728</v>
+        <v>132415</v>
       </c>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
@@ -42507,7 +42503,7 @@
       </c>
       <c r="T126" s="4">
         <f t="shared" si="3"/>
-        <v>-629577</v>
+        <v>221800</v>
       </c>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
@@ -42542,7 +42538,7 @@
       </c>
       <c r="T127" s="4">
         <f t="shared" si="3"/>
-        <v>-675060</v>
+        <v>31981</v>
       </c>
       <c r="U127" s="4"/>
       <c r="V127" s="4"/>
@@ -42577,7 +42573,7 @@
       </c>
       <c r="T128" s="4">
         <f t="shared" si="3"/>
-        <v>-638404</v>
+        <v>205599</v>
       </c>
       <c r="U128" s="4"/>
       <c r="V128" s="4"/>
@@ -42622,7 +42618,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="4">
         <f t="shared" si="3"/>
-        <v>-792677</v>
+        <v>-388882</v>
       </c>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
@@ -42657,7 +42653,7 @@
       </c>
       <c r="T130" s="4">
         <f t="shared" si="3"/>
-        <v>-730999</v>
+        <v>375822</v>
       </c>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
@@ -42692,7 +42688,7 @@
       </c>
       <c r="T131" s="4">
         <f t="shared" si="3"/>
-        <v>-884023</v>
+        <v>-243450</v>
       </c>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
@@ -42727,7 +42723,7 @@
       </c>
       <c r="T132" s="4">
         <f t="shared" si="3"/>
-        <v>-840098</v>
+        <v>403355</v>
       </c>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
@@ -42764,7 +42760,7 @@
       <c r="K133" s="2"/>
       <c r="T133" s="4">
         <f t="shared" si="3"/>
-        <v>-1045356</v>
+        <v>87085</v>
       </c>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
@@ -42809,7 +42805,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="4">
         <f t="shared" si="3"/>
-        <v>-1412485</v>
+        <v>-250152</v>
       </c>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
@@ -42854,17 +42850,17 @@
       <c r="S135" s="1"/>
       <c r="T135" s="4">
         <f t="shared" ref="T135:T196" si="6">C135*K$2+D135*L$2+E135*M$2+F135*N$2+G135*O$2+H135*P$2+I135*Q$2+R$2</f>
-        <v>-1521393</v>
+        <v>-476318</v>
       </c>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
       <c r="W135">
         <f>SUM(W136:W196)</f>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="X135">
         <f>MIN(X136:X196)</f>
-        <v>33051</v>
+        <v>65618</v>
       </c>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
@@ -42897,17 +42893,17 @@
       </c>
       <c r="T136" s="4">
         <f t="shared" si="6"/>
-        <v>-724160</v>
+        <v>-904549</v>
       </c>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
       <c r="W136">
         <f>IF(T136&lt;X$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X136">
         <f>IF(W136=0,T136-X$2,-X$2)</f>
-        <v>797233</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
@@ -42940,17 +42936,17 @@
       </c>
       <c r="T137" s="4">
         <f t="shared" si="6"/>
-        <v>-741005</v>
+        <v>-721342</v>
       </c>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137">
         <f t="shared" ref="W137:W196" si="7">IF(T137&lt;X$2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137">
         <f t="shared" ref="X137:X196" si="8">IF(W137=0,T137-X$2,-X$2)</f>
-        <v>780388</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
@@ -42983,17 +42979,17 @@
       </c>
       <c r="T138" s="4">
         <f t="shared" si="6"/>
-        <v>-1239585</v>
+        <v>-972422</v>
       </c>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X138">
         <f t="shared" si="8"/>
-        <v>281808</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
@@ -43026,7 +43022,7 @@
       </c>
       <c r="T139" s="4">
         <f t="shared" si="6"/>
-        <v>-1622664</v>
+        <v>-1483397</v>
       </c>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
@@ -43036,7 +43032,7 @@
       </c>
       <c r="X139">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
@@ -43069,17 +43065,17 @@
       </c>
       <c r="T140" s="4">
         <f t="shared" si="6"/>
-        <v>-1324784</v>
+        <v>-952477</v>
       </c>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X140">
         <f t="shared" si="8"/>
-        <v>196609</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
@@ -43112,17 +43108,17 @@
       </c>
       <c r="T141" s="4">
         <f t="shared" si="6"/>
-        <v>-1002059</v>
+        <v>-482332</v>
       </c>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X141">
         <f t="shared" si="8"/>
-        <v>519334</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.25">
@@ -43155,17 +43151,17 @@
       </c>
       <c r="T142" s="4">
         <f t="shared" si="6"/>
-        <v>-800618</v>
+        <v>-756121</v>
       </c>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X142">
         <f t="shared" si="8"/>
-        <v>720775</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
@@ -43198,7 +43194,7 @@
       </c>
       <c r="T143" s="4">
         <f t="shared" si="6"/>
-        <v>-1672873</v>
+        <v>-1392780</v>
       </c>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
@@ -43208,7 +43204,7 @@
       </c>
       <c r="X143">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
@@ -43241,17 +43237,17 @@
       </c>
       <c r="T144" s="4">
         <f t="shared" si="6"/>
-        <v>-1329813</v>
+        <v>-1240550</v>
       </c>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X144">
         <f t="shared" si="8"/>
-        <v>191580</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
@@ -43284,17 +43280,17 @@
       </c>
       <c r="T145" s="4">
         <f t="shared" si="6"/>
-        <v>-1318206</v>
+        <v>-1211657</v>
       </c>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X145">
         <f t="shared" si="8"/>
-        <v>203187</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
@@ -43327,17 +43323,17 @@
       </c>
       <c r="T146" s="4">
         <f t="shared" si="6"/>
-        <v>-1051913</v>
+        <v>-1070908</v>
       </c>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <f t="shared" si="8"/>
-        <v>469480</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
@@ -43370,17 +43366,17 @@
       </c>
       <c r="T147" s="4">
         <f t="shared" si="6"/>
-        <v>-1447116</v>
+        <v>-881591</v>
       </c>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X147">
         <f t="shared" si="8"/>
-        <v>74277</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.25">
@@ -43413,17 +43409,17 @@
       </c>
       <c r="T148" s="4">
         <f t="shared" si="6"/>
-        <v>-1478037</v>
+        <v>-1301276</v>
       </c>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X148">
         <f t="shared" si="8"/>
-        <v>43356</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
@@ -43456,7 +43452,7 @@
       </c>
       <c r="T149" s="4">
         <f t="shared" si="6"/>
-        <v>-1640317</v>
+        <v>-1409730</v>
       </c>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
@@ -43466,7 +43462,7 @@
       </c>
       <c r="X149">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
@@ -43499,17 +43495,17 @@
       </c>
       <c r="T150" s="4">
         <f t="shared" si="6"/>
-        <v>-1469693</v>
+        <v>-891886</v>
       </c>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X150">
         <f t="shared" si="8"/>
-        <v>51700</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
@@ -43542,17 +43538,17 @@
       </c>
       <c r="T151" s="4">
         <f t="shared" si="6"/>
-        <v>-1115341</v>
+        <v>-941490</v>
       </c>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X151">
         <f t="shared" si="8"/>
-        <v>406052</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
@@ -43585,17 +43581,17 @@
       </c>
       <c r="T152" s="4">
         <f t="shared" si="6"/>
-        <v>-1475135</v>
+        <v>-1390522</v>
       </c>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X152">
         <f t="shared" si="8"/>
-        <v>46258</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
@@ -43628,17 +43624,17 @@
       </c>
       <c r="T153" s="4">
         <f t="shared" si="6"/>
-        <v>-808250</v>
+        <v>-1015285</v>
       </c>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X153">
         <f t="shared" si="8"/>
-        <v>713143</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.25">
@@ -43671,17 +43667,17 @@
       </c>
       <c r="T154" s="4">
         <f t="shared" si="6"/>
-        <v>-1216032</v>
+        <v>-759623</v>
       </c>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X154">
         <f t="shared" si="8"/>
-        <v>305361</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
@@ -43714,17 +43710,17 @@
       </c>
       <c r="T155" s="4">
         <f t="shared" si="6"/>
-        <v>-932864</v>
+        <v>-677761</v>
       </c>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <f t="shared" si="8"/>
-        <v>588529</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.25">
@@ -43757,7 +43753,7 @@
       </c>
       <c r="T156" s="4">
         <f t="shared" si="6"/>
-        <v>-1825707</v>
+        <v>-1326290</v>
       </c>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
@@ -43767,7 +43763,7 @@
       </c>
       <c r="X156">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.25">
@@ -43800,17 +43796,17 @@
       </c>
       <c r="T157" s="4">
         <f t="shared" si="6"/>
-        <v>-1098378</v>
+        <v>-616487</v>
       </c>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X157">
         <f t="shared" si="8"/>
-        <v>423015</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
@@ -43843,17 +43839,17 @@
       </c>
       <c r="T158" s="4">
         <f t="shared" si="6"/>
-        <v>-1052200</v>
+        <v>-939543</v>
       </c>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X158">
         <f t="shared" si="8"/>
-        <v>469193</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.25">
@@ -43886,17 +43882,17 @@
       </c>
       <c r="T159" s="4">
         <f t="shared" si="6"/>
-        <v>-1002996</v>
+        <v>-969575</v>
       </c>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X159">
         <f t="shared" si="8"/>
-        <v>518397</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
@@ -43929,7 +43925,7 @@
       </c>
       <c r="T160" s="4">
         <f t="shared" si="6"/>
-        <v>-1538666</v>
+        <v>-1178155</v>
       </c>
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
@@ -43939,7 +43935,7 @@
       </c>
       <c r="X160">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.25">
@@ -43972,7 +43968,7 @@
       </c>
       <c r="T161" s="4">
         <f t="shared" si="6"/>
-        <v>-1672872</v>
+        <v>-1361333</v>
       </c>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
@@ -43982,7 +43978,7 @@
       </c>
       <c r="X161">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.25">
@@ -44015,7 +44011,7 @@
       </c>
       <c r="T162" s="4">
         <f t="shared" si="6"/>
-        <v>-1563515</v>
+        <v>-957808</v>
       </c>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
@@ -44025,7 +44021,7 @@
       </c>
       <c r="X162">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.25">
@@ -44058,7 +44054,7 @@
       </c>
       <c r="T163" s="4">
         <f t="shared" si="6"/>
-        <v>-1569740</v>
+        <v>-1002313</v>
       </c>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
@@ -44068,7 +44064,7 @@
       </c>
       <c r="X163">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.25">
@@ -44101,7 +44097,7 @@
       </c>
       <c r="T164" s="4">
         <f t="shared" si="6"/>
-        <v>-1595096</v>
+        <v>-1175539</v>
       </c>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
@@ -44111,7 +44107,7 @@
       </c>
       <c r="X164">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.25">
@@ -44144,7 +44140,7 @@
       </c>
       <c r="T165" s="4">
         <f t="shared" si="6"/>
-        <v>-1671665</v>
+        <v>-1379416</v>
       </c>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
@@ -44154,7 +44150,7 @@
       </c>
       <c r="X165">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
@@ -44187,7 +44183,7 @@
       </c>
       <c r="T166" s="4">
         <f t="shared" si="6"/>
-        <v>-1806765</v>
+        <v>-1298354</v>
       </c>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
@@ -44197,7 +44193,7 @@
       </c>
       <c r="X166">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
@@ -44230,7 +44226,7 @@
       </c>
       <c r="T167" s="4">
         <f t="shared" si="6"/>
-        <v>-1613656</v>
+        <v>-1190673</v>
       </c>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
@@ -44240,7 +44236,7 @@
       </c>
       <c r="X167">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.25">
@@ -44273,7 +44269,7 @@
       </c>
       <c r="T168" s="4">
         <f t="shared" si="6"/>
-        <v>-1777241</v>
+        <v>-1136404</v>
       </c>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
@@ -44283,7 +44279,7 @@
       </c>
       <c r="X168">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.25">
@@ -44316,7 +44312,7 @@
       </c>
       <c r="T169" s="4">
         <f t="shared" si="6"/>
-        <v>-1574311</v>
+        <v>-1026414</v>
       </c>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
@@ -44326,7 +44322,7 @@
       </c>
       <c r="X169">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
@@ -44359,17 +44355,17 @@
       </c>
       <c r="T170" s="4">
         <f t="shared" si="6"/>
-        <v>-831578</v>
+        <v>-553855</v>
       </c>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X170">
         <f t="shared" si="8"/>
-        <v>689815</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.25">
@@ -44402,7 +44398,7 @@
       </c>
       <c r="T171" s="4">
         <f t="shared" si="6"/>
-        <v>-1576941</v>
+        <v>-755402</v>
       </c>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
@@ -44412,7 +44408,7 @@
       </c>
       <c r="X171">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
@@ -44445,17 +44441,17 @@
       </c>
       <c r="T172" s="4">
         <f t="shared" si="6"/>
-        <v>-1058341</v>
+        <v>-749790</v>
       </c>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X172">
         <f t="shared" si="8"/>
-        <v>463052</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
@@ -44488,17 +44484,17 @@
       </c>
       <c r="T173" s="4">
         <f t="shared" si="6"/>
-        <v>-1488342</v>
+        <v>-1132955</v>
       </c>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X173">
         <f t="shared" si="8"/>
-        <v>33051</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.25">
@@ -44531,17 +44527,17 @@
       </c>
       <c r="T174" s="4">
         <f t="shared" si="6"/>
-        <v>-821876</v>
+        <v>-800329</v>
       </c>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X174">
         <f t="shared" si="8"/>
-        <v>699517</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
@@ -44574,17 +44570,17 @@
       </c>
       <c r="T175" s="4">
         <f t="shared" si="6"/>
-        <v>-1299514</v>
+        <v>-1027659</v>
       </c>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X175">
         <f t="shared" si="8"/>
-        <v>221879</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
@@ -44617,17 +44613,17 @@
       </c>
       <c r="T176" s="4">
         <f t="shared" si="6"/>
-        <v>-1245849</v>
+        <v>-1240484</v>
       </c>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X176">
         <f t="shared" si="8"/>
-        <v>275544</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
@@ -44660,7 +44656,7 @@
       </c>
       <c r="T177" s="4">
         <f t="shared" si="6"/>
-        <v>-1712552</v>
+        <v>-1064629</v>
       </c>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
@@ -44670,7 +44666,7 @@
       </c>
       <c r="X177">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.25">
@@ -44703,7 +44699,7 @@
       </c>
       <c r="T178" s="4">
         <f t="shared" si="6"/>
-        <v>-1954701</v>
+        <v>-1039286</v>
       </c>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
@@ -44713,7 +44709,7 @@
       </c>
       <c r="X178">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
@@ -44746,7 +44742,7 @@
       </c>
       <c r="T179" s="4">
         <f t="shared" si="6"/>
-        <v>-1810824</v>
+        <v>-1300511</v>
       </c>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
@@ -44756,7 +44752,7 @@
       </c>
       <c r="X179">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
@@ -44789,7 +44785,7 @@
       </c>
       <c r="T180" s="4">
         <f t="shared" si="6"/>
-        <v>-1535404</v>
+        <v>-957597</v>
       </c>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
@@ -44799,7 +44795,7 @@
       </c>
       <c r="X180">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
@@ -44832,17 +44828,17 @@
       </c>
       <c r="T181" s="4">
         <f t="shared" si="6"/>
-        <v>-1247172</v>
+        <v>-873221</v>
       </c>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X181">
         <f t="shared" si="8"/>
-        <v>274221</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.25">
@@ -44875,7 +44871,7 @@
       </c>
       <c r="T182" s="4">
         <f t="shared" si="6"/>
-        <v>-1747064</v>
+        <v>-1300597</v>
       </c>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
@@ -44885,7 +44881,7 @@
       </c>
       <c r="X182">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
@@ -44918,17 +44914,17 @@
       </c>
       <c r="T183" s="4">
         <f t="shared" si="6"/>
-        <v>-1098824</v>
+        <v>-574903</v>
       </c>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
       <c r="W183">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X183">
         <f t="shared" si="8"/>
-        <v>422569</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
@@ -44961,7 +44957,7 @@
       </c>
       <c r="T184" s="4">
         <f t="shared" si="6"/>
-        <v>-945332</v>
+        <v>-300385</v>
       </c>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
@@ -44971,7 +44967,7 @@
       </c>
       <c r="X184">
         <f t="shared" si="8"/>
-        <v>576061</v>
+        <v>181162</v>
       </c>
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
@@ -45004,7 +45000,7 @@
       </c>
       <c r="T185" s="4">
         <f t="shared" si="6"/>
-        <v>-987400</v>
+        <v>-415929</v>
       </c>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
@@ -45014,7 +45010,7 @@
       </c>
       <c r="X185">
         <f t="shared" si="8"/>
-        <v>533993</v>
+        <v>65618</v>
       </c>
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.25">
@@ -45047,7 +45043,7 @@
       </c>
       <c r="T186" s="4">
         <f t="shared" si="6"/>
-        <v>-666292</v>
+        <v>-307155</v>
       </c>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
@@ -45057,7 +45053,7 @@
       </c>
       <c r="X186">
         <f t="shared" si="8"/>
-        <v>855101</v>
+        <v>174392</v>
       </c>
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
@@ -45090,17 +45086,17 @@
       </c>
       <c r="T187" s="4">
         <f t="shared" si="6"/>
-        <v>-802160</v>
+        <v>-629899</v>
       </c>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X187">
         <f t="shared" si="8"/>
-        <v>719233</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.25">
@@ -45133,7 +45129,7 @@
       </c>
       <c r="T188" s="4">
         <f t="shared" si="6"/>
-        <v>-849560</v>
+        <v>-61267</v>
       </c>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
@@ -45143,7 +45139,7 @@
       </c>
       <c r="X188">
         <f t="shared" si="8"/>
-        <v>671833</v>
+        <v>420280</v>
       </c>
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
@@ -45176,7 +45172,7 @@
       </c>
       <c r="T189" s="4">
         <f t="shared" si="6"/>
-        <v>-909736</v>
+        <v>11565</v>
       </c>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
@@ -45186,7 +45182,7 @@
       </c>
       <c r="X189">
         <f t="shared" si="8"/>
-        <v>611657</v>
+        <v>493112</v>
       </c>
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.25">
@@ -45219,7 +45215,7 @@
       </c>
       <c r="T190" s="4">
         <f t="shared" si="6"/>
-        <v>-1627503</v>
+        <v>-784220</v>
       </c>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
@@ -45229,7 +45225,7 @@
       </c>
       <c r="X190">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
@@ -45262,17 +45258,17 @@
       </c>
       <c r="T191" s="4">
         <f t="shared" si="6"/>
-        <v>-1262598</v>
+        <v>-759653</v>
       </c>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X191">
         <f t="shared" si="8"/>
-        <v>258795</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
@@ -45305,17 +45301,17 @@
       </c>
       <c r="T192" s="4">
         <f t="shared" si="6"/>
-        <v>-1032755</v>
+        <v>-509452</v>
       </c>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
       <c r="W192">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X192">
         <f t="shared" si="8"/>
-        <v>488638</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
@@ -45348,7 +45344,7 @@
       </c>
       <c r="T193" s="4">
         <f t="shared" si="6"/>
-        <v>-1119793</v>
+        <v>-378678</v>
       </c>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
@@ -45358,7 +45354,7 @@
       </c>
       <c r="X193">
         <f t="shared" si="8"/>
-        <v>401600</v>
+        <v>102869</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
@@ -45391,7 +45387,7 @@
       </c>
       <c r="T194" s="4">
         <f t="shared" si="6"/>
-        <v>-1534470</v>
+        <v>-963431</v>
       </c>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
@@ -45401,7 +45397,7 @@
       </c>
       <c r="X194">
         <f t="shared" si="8"/>
-        <v>1521393</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
@@ -45434,17 +45430,17 @@
       </c>
       <c r="T195" s="4">
         <f t="shared" si="6"/>
-        <v>-1259286</v>
+        <v>-773609</v>
       </c>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X195">
         <f t="shared" si="8"/>
-        <v>262107</v>
+        <v>481547</v>
       </c>
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
@@ -45477,17 +45473,17 @@
       </c>
       <c r="T196" s="4">
         <f t="shared" si="6"/>
-        <v>-1167931</v>
+        <v>-734004</v>
       </c>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
       <c r="W196">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X196">
         <f t="shared" si="8"/>
-        <v>353462</v>
+        <v>481547</v>
       </c>
     </row>
   </sheetData>
@@ -45684,7 +45680,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="4">
-        <f>C6*K$2+D6*L$2+E6*M$2+F6*N$2+G6*O$2+H6*P$2+I6*Q$2+R$2</f>
+        <f t="shared" ref="T6:T37" si="0">C6*K$2+D6*L$2+E6*M$2+F6*N$2+G6*O$2+H6*P$2+I6*Q$2+R$2</f>
         <v>447228</v>
       </c>
       <c r="U6" s="4"/>
@@ -45729,17 +45725,17 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="T7" s="4">
-        <f>C7*K$2+D7*L$2+E7*M$2+F7*N$2+G7*O$2+H7*P$2+I7*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>568795</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7">
-        <f t="shared" ref="W7:W70" si="0">IF(T7&gt;W$2,1,0)</f>
+        <f t="shared" ref="W7:W70" si="1">IF(T7&gt;W$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:X70" si="1">IF(W7=0,W$2-T7,W$2)</f>
+        <f t="shared" ref="X7:X70" si="2">IF(W7=0,W$2-T7,W$2)</f>
         <v>755703</v>
       </c>
     </row>
@@ -45774,17 +45770,17 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="T8" s="4">
-        <f>C8*K$2+D8*L$2+E8*M$2+F8*N$2+G8*O$2+H8*P$2+I8*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>570389</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>754109</v>
       </c>
     </row>
@@ -45819,17 +45815,17 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="T9" s="4">
-        <f>C9*K$2+D9*L$2+E9*M$2+F9*N$2+G9*O$2+H9*P$2+I9*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>629024</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>695474</v>
       </c>
     </row>
@@ -45864,17 +45860,17 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="T10" s="4">
-        <f>C10*K$2+D10*L$2+E10*M$2+F10*N$2+G10*O$2+H10*P$2+I10*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>756931</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>567567</v>
       </c>
     </row>
@@ -45909,17 +45905,17 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="T11" s="4">
-        <f>C11*K$2+D11*L$2+E11*M$2+F11*N$2+G11*O$2+H11*P$2+I11*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>785544</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>538954</v>
       </c>
     </row>
@@ -45954,17 +45950,17 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="T12" s="4">
-        <f>C12*K$2+D12*L$2+E12*M$2+F12*N$2+G12*O$2+H12*P$2+I12*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>804550</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>519948</v>
       </c>
     </row>
@@ -45997,17 +45993,17 @@
         <v>783</v>
       </c>
       <c r="T13" s="4">
-        <f>C13*K$2+D13*L$2+E13*M$2+F13*N$2+G13*O$2+H13*P$2+I13*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>855209</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>469289</v>
       </c>
     </row>
@@ -46042,17 +46038,17 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="T14" s="4">
-        <f>C14*K$2+D14*L$2+E14*M$2+F14*N$2+G14*O$2+H14*P$2+I14*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>884323</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440175</v>
       </c>
     </row>
@@ -46087,17 +46083,17 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="T15" s="4">
-        <f>C15*K$2+D15*L$2+E15*M$2+F15*N$2+G15*O$2+H15*P$2+I15*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>890718</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>433780</v>
       </c>
     </row>
@@ -46132,17 +46128,17 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="T16" s="4">
-        <f>C16*K$2+D16*L$2+E16*M$2+F16*N$2+G16*O$2+H16*P$2+I16*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1051085</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273413</v>
       </c>
     </row>
@@ -46175,17 +46171,17 @@
         <v>921</v>
       </c>
       <c r="T17" s="10">
-        <f>C17*K$2+D17*L$2+E17*M$2+F17*N$2+G17*O$2+H17*P$2+I17*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1203662</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120836</v>
       </c>
     </row>
@@ -46220,17 +46216,17 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="T18" s="4">
-        <f>C18*K$2+D18*L$2+E18*M$2+F18*N$2+G18*O$2+H18*P$2+I18*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1231118</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93380</v>
       </c>
     </row>
@@ -46263,17 +46259,17 @@
         <v>636</v>
       </c>
       <c r="T19" s="10">
-        <f>C19*K$2+D19*L$2+E19*M$2+F19*N$2+G19*O$2+H19*P$2+I19*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1285628</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38870</v>
       </c>
     </row>
@@ -46316,17 +46312,17 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="4">
-        <f>C20*K$2+D20*L$2+E20*M$2+F20*N$2+G20*O$2+H20*P$2+I20*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2876242</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46361,17 +46357,17 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="T21" s="4">
-        <f>C21*K$2+D21*L$2+E21*M$2+F21*N$2+G21*O$2+H21*P$2+I21*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2857172</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46404,17 +46400,17 @@
         <v>2745</v>
       </c>
       <c r="T22" s="4">
-        <f>C22*K$2+D22*L$2+E22*M$2+F22*N$2+G22*O$2+H22*P$2+I22*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2759225</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46447,17 +46443,17 @@
         <v>1953</v>
       </c>
       <c r="T23" s="4">
-        <f>C23*K$2+D23*L$2+E23*M$2+F23*N$2+G23*O$2+H23*P$2+I23*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2740243</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46492,17 +46488,17 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="T24" s="4">
-        <f>C24*K$2+D24*L$2+E24*M$2+F24*N$2+G24*O$2+H24*P$2+I24*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2739166</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46535,17 +46531,17 @@
         <v>2751</v>
       </c>
       <c r="T25" s="4">
-        <f>C25*K$2+D25*L$2+E25*M$2+F25*N$2+G25*O$2+H25*P$2+I25*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2729119</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46578,17 +46574,17 @@
         <v>3048</v>
       </c>
       <c r="T26" s="4">
-        <f>C26*K$2+D26*L$2+E26*M$2+F26*N$2+G26*O$2+H26*P$2+I26*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2667946</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46621,17 +46617,17 @@
         <v>2358</v>
       </c>
       <c r="T27" s="4">
-        <f>C27*K$2+D27*L$2+E27*M$2+F27*N$2+G27*O$2+H27*P$2+I27*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2638286</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46665,17 +46661,17 @@
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4">
-        <f>C28*K$2+D28*L$2+E28*M$2+F28*N$2+G28*O$2+H28*P$2+I28*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2520763</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46710,17 +46706,17 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="T29" s="4">
-        <f>C29*K$2+D29*L$2+E29*M$2+F29*N$2+G29*O$2+H29*P$2+I29*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2404531</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46753,17 +46749,17 @@
         <v>1953</v>
       </c>
       <c r="T30" s="4">
-        <f>C30*K$2+D30*L$2+E30*M$2+F30*N$2+G30*O$2+H30*P$2+I30*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2403433</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46798,17 +46794,17 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="T31" s="4">
-        <f>C31*K$2+D31*L$2+E31*M$2+F31*N$2+G31*O$2+H31*P$2+I31*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2359834</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46841,17 +46837,17 @@
         <v>1887</v>
       </c>
       <c r="T32" s="4">
-        <f>C32*K$2+D32*L$2+E32*M$2+F32*N$2+G32*O$2+H32*P$2+I32*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2316595</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46884,17 +46880,17 @@
         <v>1293</v>
       </c>
       <c r="T33" s="4">
-        <f>C33*K$2+D33*L$2+E33*M$2+F33*N$2+G33*O$2+H33*P$2+I33*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2292389</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46927,17 +46923,17 @@
         <v>2112</v>
       </c>
       <c r="T34" s="4">
-        <f>C34*K$2+D34*L$2+E34*M$2+F34*N$2+G34*O$2+H34*P$2+I34*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2291866</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -46970,17 +46966,17 @@
         <v>1170</v>
       </c>
       <c r="T35" s="4">
-        <f>C35*K$2+D35*L$2+E35*M$2+F35*N$2+G35*O$2+H35*P$2+I35*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2280132</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47015,17 +47011,17 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="T36" s="4">
-        <f>C36*K$2+D36*L$2+E36*M$2+F36*N$2+G36*O$2+H36*P$2+I36*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2278145</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47058,17 +47054,17 @@
         <v>2757</v>
       </c>
       <c r="T37" s="4">
-        <f>C37*K$2+D37*L$2+E37*M$2+F37*N$2+G37*O$2+H37*P$2+I37*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>2225675</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47101,17 +47097,17 @@
         <v>2085</v>
       </c>
       <c r="T38" s="4">
-        <f>C38*K$2+D38*L$2+E38*M$2+F38*N$2+G38*O$2+H38*P$2+I38*Q$2+R$2</f>
+        <f t="shared" ref="T38:T72" si="3">C38*K$2+D38*L$2+E38*M$2+F38*N$2+G38*O$2+H38*P$2+I38*Q$2+R$2</f>
         <v>2221578</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47144,17 +47140,17 @@
         <v>1953</v>
       </c>
       <c r="T39" s="4">
-        <f>C39*K$2+D39*L$2+E39*M$2+F39*N$2+G39*O$2+H39*P$2+I39*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2204403</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47187,17 +47183,17 @@
         <v>1635</v>
       </c>
       <c r="T40" s="4">
-        <f>C40*K$2+D40*L$2+E40*M$2+F40*N$2+G40*O$2+H40*P$2+I40*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2190563</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47230,17 +47226,17 @@
         <v>1425</v>
       </c>
       <c r="T41" s="4">
-        <f>C41*K$2+D41*L$2+E41*M$2+F41*N$2+G41*O$2+H41*P$2+I41*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2136776</v>
       </c>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47273,17 +47269,17 @@
         <v>1842</v>
       </c>
       <c r="T42" s="4">
-        <f>C42*K$2+D42*L$2+E42*M$2+F42*N$2+G42*O$2+H42*P$2+I42*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2108703</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47316,17 +47312,17 @@
         <v>1245</v>
       </c>
       <c r="T43" s="4">
-        <f>C43*K$2+D43*L$2+E43*M$2+F43*N$2+G43*O$2+H43*P$2+I43*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2107852</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47359,17 +47355,17 @@
         <v>1725</v>
       </c>
       <c r="T44" s="4">
-        <f>C44*K$2+D44*L$2+E44*M$2+F44*N$2+G44*O$2+H44*P$2+I44*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2084655</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47402,17 +47398,17 @@
         <v>1689</v>
       </c>
       <c r="T45" s="4">
-        <f>C45*K$2+D45*L$2+E45*M$2+F45*N$2+G45*O$2+H45*P$2+I45*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2080319</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47445,17 +47441,17 @@
         <v>1557</v>
       </c>
       <c r="T46" s="4">
-        <f>C46*K$2+D46*L$2+E46*M$2+F46*N$2+G46*O$2+H46*P$2+I46*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2051388</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47488,17 +47484,17 @@
         <v>1998</v>
       </c>
       <c r="T47" s="4">
-        <f>C47*K$2+D47*L$2+E47*M$2+F47*N$2+G47*O$2+H47*P$2+I47*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2042884</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47533,17 +47529,17 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="T48" s="4">
-        <f>C48*K$2+D48*L$2+E48*M$2+F48*N$2+G48*O$2+H48*P$2+I48*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2041379</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47576,17 +47572,17 @@
         <v>1557</v>
       </c>
       <c r="T49" s="4">
-        <f>C49*K$2+D49*L$2+E49*M$2+F49*N$2+G49*O$2+H49*P$2+I49*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2032033</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47619,17 +47615,17 @@
         <v>1080</v>
       </c>
       <c r="T50" s="4">
-        <f>C50*K$2+D50*L$2+E50*M$2+F50*N$2+G50*O$2+H50*P$2+I50*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2022356</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47664,17 +47660,17 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="T51" s="4">
-        <f>C51*K$2+D51*L$2+E51*M$2+F51*N$2+G51*O$2+H51*P$2+I51*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2019282</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47707,17 +47703,17 @@
         <v>1035</v>
       </c>
       <c r="T52" s="4">
-        <f>C52*K$2+D52*L$2+E52*M$2+F52*N$2+G52*O$2+H52*P$2+I52*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>2009987</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47750,17 +47746,17 @@
         <v>780</v>
       </c>
       <c r="T53" s="4">
-        <f>C53*K$2+D53*L$2+E53*M$2+F53*N$2+G53*O$2+H53*P$2+I53*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1986466</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47793,17 +47789,17 @@
         <v>648</v>
       </c>
       <c r="T54" s="4">
-        <f>C54*K$2+D54*L$2+E54*M$2+F54*N$2+G54*O$2+H54*P$2+I54*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1970955</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47836,17 +47832,17 @@
         <v>1374</v>
       </c>
       <c r="T55" s="4">
-        <f>C55*K$2+D55*L$2+E55*M$2+F55*N$2+G55*O$2+H55*P$2+I55*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1953794</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47881,17 +47877,17 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="T56" s="4">
-        <f>C56*K$2+D56*L$2+E56*M$2+F56*N$2+G56*O$2+H56*P$2+I56*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1925021</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47924,17 +47920,17 @@
         <v>1704</v>
       </c>
       <c r="T57" s="4">
-        <f>C57*K$2+D57*L$2+E57*M$2+F57*N$2+G57*O$2+H57*P$2+I57*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1899941</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -47967,17 +47963,17 @@
         <v>1989</v>
       </c>
       <c r="T58" s="4">
-        <f>C58*K$2+D58*L$2+E58*M$2+F58*N$2+G58*O$2+H58*P$2+I58*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1875525</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48010,17 +48006,17 @@
         <v>2217</v>
       </c>
       <c r="T59" s="4">
-        <f>C59*K$2+D59*L$2+E59*M$2+F59*N$2+G59*O$2+H59*P$2+I59*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1834289</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48053,17 +48049,17 @@
         <v>1113</v>
       </c>
       <c r="T60" s="4">
-        <f>C60*K$2+D60*L$2+E60*M$2+F60*N$2+G60*O$2+H60*P$2+I60*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1794556</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48098,17 +48094,17 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="T61" s="4">
-        <f>C61*K$2+D61*L$2+E61*M$2+F61*N$2+G61*O$2+H61*P$2+I61*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1785697</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48141,17 +48137,17 @@
         <v>1284</v>
       </c>
       <c r="T62" s="4">
-        <f>C62*K$2+D62*L$2+E62*M$2+F62*N$2+G62*O$2+H62*P$2+I62*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1753759</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48186,17 +48182,17 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="T63" s="4">
-        <f>C63*K$2+D63*L$2+E63*M$2+F63*N$2+G63*O$2+H63*P$2+I63*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1709538</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48229,17 +48225,17 @@
         <v>1155</v>
       </c>
       <c r="T64" s="4">
-        <f>C64*K$2+D64*L$2+E64*M$2+F64*N$2+G64*O$2+H64*P$2+I64*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1695904</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48272,17 +48268,17 @@
         <v>909</v>
       </c>
       <c r="T65" s="4">
-        <f>C65*K$2+D65*L$2+E65*M$2+F65*N$2+G65*O$2+H65*P$2+I65*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1658876</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48315,17 +48311,17 @@
         <v>1431</v>
       </c>
       <c r="T66" s="4">
-        <f>C66*K$2+D66*L$2+E66*M$2+F66*N$2+G66*O$2+H66*P$2+I66*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1638140</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48358,17 +48354,17 @@
         <v>1578</v>
       </c>
       <c r="T67" s="4">
-        <f>C67*K$2+D67*L$2+E67*M$2+F67*N$2+G67*O$2+H67*P$2+I67*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1587380</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48401,17 +48397,17 @@
         <v>1311</v>
       </c>
       <c r="T68" s="4">
-        <f>C68*K$2+D68*L$2+E68*M$2+F68*N$2+G68*O$2+H68*P$2+I68*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1523602</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48444,17 +48440,17 @@
         <v>1185</v>
       </c>
       <c r="T69" s="4">
-        <f>C69*K$2+D69*L$2+E69*M$2+F69*N$2+G69*O$2+H69*P$2+I69*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1488125</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48489,17 +48485,17 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="T70" s="4">
-        <f>C70*K$2+D70*L$2+E70*M$2+F70*N$2+G70*O$2+H70*P$2+I70*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1349877</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48532,17 +48528,17 @@
         <v>1299</v>
       </c>
       <c r="T71" s="4">
-        <f>C71*K$2+D71*L$2+E71*M$2+F71*N$2+G71*O$2+H71*P$2+I71*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1329106</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71">
-        <f t="shared" ref="W71:W72" si="2">IF(T71&gt;W$2,1,0)</f>
+        <f t="shared" ref="W71:W72" si="4">IF(T71&gt;W$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="X71">
-        <f t="shared" ref="X71:X72" si="3">IF(W71=0,W$2-T71,W$2)</f>
+        <f t="shared" ref="X71:X72" si="5">IF(W71=0,W$2-T71,W$2)</f>
         <v>1324498</v>
       </c>
     </row>
@@ -48585,7 +48581,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="4">
-        <f>C72*K$2+D72*L$2+E72*M$2+F72*N$2+G72*O$2+H72*P$2+I72*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1326208</v>
       </c>
       <c r="U72" s="4">
@@ -48594,11 +48590,11 @@
       </c>
       <c r="V72" s="4"/>
       <c r="W72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1324498</v>
       </c>
     </row>
@@ -48631,7 +48627,7 @@
         <v>1029</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" ref="T71:T134" si="4">C73*K$2+D73*L$2+E73*M$2+F73*N$2+G73*O$2+H73*P$2+I73*Q$2+R$2</f>
+        <f t="shared" ref="T73:T134" si="6">C73*K$2+D73*L$2+E73*M$2+F73*N$2+G73*O$2+H73*P$2+I73*Q$2+R$2</f>
         <v>1324498</v>
       </c>
       <c r="U73" s="4">
@@ -48669,7 +48665,7 @@
         <v>-150</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1323918</v>
       </c>
       <c r="U74" s="4"/>
@@ -48704,7 +48700,7 @@
         <v>-3</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1183251</v>
       </c>
       <c r="U75" s="4"/>
@@ -48739,7 +48735,7 @@
         <v>-21</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1012838</v>
       </c>
       <c r="U76" s="4"/>
@@ -48774,7 +48770,7 @@
         <v>-1077</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1028204</v>
       </c>
       <c r="U77" s="4"/>
@@ -48809,7 +48805,7 @@
         <v>-1329</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>951392</v>
       </c>
       <c r="U78" s="4"/>
@@ -48844,7 +48840,7 @@
         <v>-18</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>662964</v>
       </c>
       <c r="U79" s="4"/>
@@ -48879,7 +48875,7 @@
         <v>-1206</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>772997</v>
       </c>
       <c r="U80" s="4"/>
@@ -48914,7 +48910,7 @@
         <v>-936</v>
       </c>
       <c r="T81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>712341</v>
       </c>
       <c r="U81" s="4"/>
@@ -48949,7 +48945,7 @@
         <v>-942</v>
       </c>
       <c r="T82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>690813</v>
       </c>
       <c r="U82" s="4"/>
@@ -48984,7 +48980,7 @@
         <v>-918</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>692252</v>
       </c>
       <c r="U83" s="4"/>
@@ -49019,7 +49015,7 @@
         <v>-1464</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>767246</v>
       </c>
       <c r="U84" s="4"/>
@@ -49054,7 +49050,7 @@
         <v>-522</v>
       </c>
       <c r="T85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>595668</v>
       </c>
       <c r="U85" s="4"/>
@@ -49089,7 +49085,7 @@
         <v>-285</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>531973</v>
       </c>
       <c r="U86" s="4"/>
@@ -49124,7 +49120,7 @@
         <v>-549</v>
       </c>
       <c r="T87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>489528</v>
       </c>
       <c r="U87" s="4"/>
@@ -49159,7 +49155,7 @@
         <v>-141</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>406688</v>
       </c>
       <c r="U88" s="4"/>
@@ -49194,7 +49190,7 @@
         <v>-1599</v>
       </c>
       <c r="T89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>655130</v>
       </c>
       <c r="U89" s="4"/>
@@ -49229,7 +49225,7 @@
         <v>-1194</v>
       </c>
       <c r="T90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>553487</v>
       </c>
       <c r="U90" s="4"/>
@@ -49264,7 +49260,7 @@
         <v>-675</v>
       </c>
       <c r="T91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>381738</v>
       </c>
       <c r="U91" s="4"/>
@@ -49299,7 +49295,7 @@
         <v>-1734</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>546130</v>
       </c>
       <c r="U92" s="4"/>
@@ -49334,7 +49330,7 @@
         <v>-1077</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>439570</v>
       </c>
       <c r="U93" s="4"/>
@@ -49369,7 +49365,7 @@
         <v>-1338</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>435275</v>
       </c>
       <c r="U94" s="4"/>
@@ -49404,7 +49400,7 @@
         <v>-1152</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>339048</v>
       </c>
       <c r="U95" s="4"/>
@@ -49439,7 +49435,7 @@
         <v>-702</v>
       </c>
       <c r="T96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>255465</v>
       </c>
       <c r="U96" s="4"/>
@@ -49474,7 +49470,7 @@
         <v>-1269</v>
       </c>
       <c r="T97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>345265</v>
       </c>
       <c r="U97" s="4"/>
@@ -49509,7 +49505,7 @@
         <v>-414</v>
       </c>
       <c r="T98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>188639</v>
       </c>
       <c r="U98" s="4"/>
@@ -49544,7 +49540,7 @@
         <v>-945</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>238972</v>
       </c>
       <c r="U99" s="4"/>
@@ -49579,7 +49575,7 @@
         <v>-705</v>
       </c>
       <c r="T100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157061</v>
       </c>
       <c r="U100" s="4"/>
@@ -49614,7 +49610,7 @@
         <v>-1170</v>
       </c>
       <c r="T101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>179238</v>
       </c>
       <c r="U101" s="4"/>
@@ -49649,7 +49645,7 @@
         <v>-1074</v>
       </c>
       <c r="T102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>157006</v>
       </c>
       <c r="U102" s="4"/>
@@ -49684,7 +49680,7 @@
         <v>-1206</v>
       </c>
       <c r="T103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>163329</v>
       </c>
       <c r="U103" s="4"/>
@@ -49719,7 +49715,7 @@
         <v>-1470</v>
       </c>
       <c r="T104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>197855</v>
       </c>
       <c r="U104" s="4"/>
@@ -49754,7 +49750,7 @@
         <v>-945</v>
       </c>
       <c r="T105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72456</v>
       </c>
       <c r="U105" s="4"/>
@@ -49789,7 +49785,7 @@
         <v>-930</v>
       </c>
       <c r="T106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72360</v>
       </c>
       <c r="U106" s="4"/>
@@ -49824,7 +49820,7 @@
         <v>-1488</v>
       </c>
       <c r="T107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>116371</v>
       </c>
       <c r="U107" s="4"/>
@@ -49859,7 +49855,7 @@
         <v>-1566</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120129</v>
       </c>
       <c r="U108" s="4"/>
@@ -49894,7 +49890,7 @@
         <v>-1734</v>
       </c>
       <c r="T109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>143251</v>
       </c>
       <c r="U109" s="4"/>
@@ -49929,7 +49925,7 @@
         <v>-1599</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>91645</v>
       </c>
       <c r="U110" s="4"/>
@@ -49964,7 +49960,7 @@
         <v>-1602</v>
       </c>
       <c r="T111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>73589</v>
       </c>
       <c r="U111" s="4"/>
@@ -49999,7 +49995,7 @@
         <v>-2655</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>243681</v>
       </c>
       <c r="U112" s="4"/>
@@ -50036,7 +50032,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="T113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>43055</v>
       </c>
       <c r="U113" s="4"/>
@@ -50071,7 +50067,7 @@
         <v>-1719</v>
       </c>
       <c r="T114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-33241</v>
       </c>
       <c r="U114" s="4"/>
@@ -50106,7 +50102,7 @@
         <v>-2259</v>
       </c>
       <c r="T115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59488</v>
       </c>
       <c r="U115" s="4"/>
@@ -50141,7 +50137,7 @@
         <v>-2187</v>
       </c>
       <c r="T116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28461</v>
       </c>
       <c r="U116" s="4"/>
@@ -50176,7 +50172,7 @@
         <v>-1068</v>
       </c>
       <c r="T117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-227272</v>
       </c>
       <c r="U117" s="4"/>
@@ -50211,7 +50207,7 @@
         <v>-1434</v>
       </c>
       <c r="T118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-201749</v>
       </c>
       <c r="U118" s="4"/>
@@ -50246,7 +50242,7 @@
         <v>-1311</v>
       </c>
       <c r="T119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-214477</v>
       </c>
       <c r="U119" s="4"/>
@@ -50281,7 +50277,7 @@
         <v>-2127</v>
       </c>
       <c r="T120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-87434</v>
       </c>
       <c r="U120" s="4"/>
@@ -50316,7 +50312,7 @@
         <v>-1599</v>
       </c>
       <c r="T121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-210557</v>
       </c>
       <c r="U121" s="4"/>
@@ -50351,7 +50347,7 @@
         <v>-2388</v>
       </c>
       <c r="T122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-116323</v>
       </c>
       <c r="U122" s="4"/>
@@ -50386,7 +50382,7 @@
         <v>-1338</v>
       </c>
       <c r="T123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-421636</v>
       </c>
       <c r="U123" s="4"/>
@@ -50421,7 +50417,7 @@
         <v>-2259</v>
       </c>
       <c r="T124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-345121</v>
       </c>
       <c r="U124" s="4"/>
@@ -50456,7 +50452,7 @@
         <v>-2127</v>
       </c>
       <c r="T125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-423151</v>
       </c>
       <c r="U125" s="4"/>
@@ -50491,7 +50487,7 @@
         <v>-2256</v>
       </c>
       <c r="T126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-427000</v>
       </c>
       <c r="U126" s="4"/>
@@ -50526,7 +50522,7 @@
         <v>-1995</v>
       </c>
       <c r="T127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-472483</v>
       </c>
       <c r="U127" s="4"/>
@@ -50561,7 +50557,7 @@
         <v>-2253</v>
       </c>
       <c r="T128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-435827</v>
       </c>
       <c r="U128" s="4"/>
@@ -50606,7 +50602,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-590100</v>
       </c>
       <c r="U129" s="4"/>
@@ -50641,7 +50637,7 @@
         <v>-2781</v>
       </c>
       <c r="T130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-528422</v>
       </c>
       <c r="U130" s="4"/>
@@ -50676,7 +50672,7 @@
         <v>-1860</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-681446</v>
       </c>
       <c r="U131" s="4"/>
@@ -50711,7 +50707,7 @@
         <v>-3045</v>
       </c>
       <c r="T132" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-637521</v>
       </c>
       <c r="U132" s="4"/>
@@ -50748,7 +50744,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="T133" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-842779</v>
       </c>
       <c r="U133" s="4"/>
@@ -50793,7 +50789,7 @@
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
       <c r="T134" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1209908</v>
       </c>
       <c r="U134" s="4"/>
@@ -50838,7 +50834,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="4">
-        <f t="shared" ref="T135:T196" si="5">C135*K$2+D135*L$2+E135*M$2+F135*N$2+G135*O$2+H135*P$2+I135*Q$2+R$2</f>
+        <f t="shared" ref="T135" si="7">C135*K$2+D135*L$2+E135*M$2+F135*N$2+G135*O$2+H135*P$2+I135*Q$2+R$2</f>
         <v>-1318816</v>
       </c>
       <c r="U135" s="4">
@@ -50884,7 +50880,7 @@
         <v>-1593</v>
       </c>
       <c r="T136" s="4">
-        <f>C136*K$2+D136*L$2+E136*M$2+F136*N$2+G136*O$2+H136*P$2+I136*Q$2+R$2</f>
+        <f t="shared" ref="T136:T167" si="8">C136*K$2+D136*L$2+E136*M$2+F136*N$2+G136*O$2+H136*P$2+I136*Q$2+R$2</f>
         <v>-1331893</v>
       </c>
       <c r="U136" s="4">
@@ -50930,17 +50926,17 @@
         <v>-1599</v>
       </c>
       <c r="T137" s="4">
-        <f>C137*K$2+D137*L$2+E137*M$2+F137*N$2+G137*O$2+H137*P$2+I137*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1332827</v>
       </c>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137">
-        <f t="shared" ref="W137:W196" si="6">IF(T137&lt;X$2,1,0)</f>
+        <f t="shared" ref="W137:W196" si="9">IF(T137&lt;X$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="X137">
-        <f t="shared" ref="X137:X196" si="7">IF(W137=0,T137-X$2,-X$2)</f>
+        <f t="shared" ref="X137:X196" si="10">IF(W137=0,T137-X$2,-X$2)</f>
         <v>1318816</v>
       </c>
     </row>
@@ -50973,17 +50969,17 @@
         <v>-1206</v>
       </c>
       <c r="T138" s="4">
-        <f>C138*K$2+D138*L$2+E138*M$2+F138*N$2+G138*O$2+H138*P$2+I138*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1336089</v>
       </c>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51016,17 +51012,17 @@
         <v>-1734</v>
       </c>
       <c r="T139" s="4">
-        <f>C139*K$2+D139*L$2+E139*M$2+F139*N$2+G139*O$2+H139*P$2+I139*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1360938</v>
       </c>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51059,17 +51055,17 @@
         <v>-1602</v>
       </c>
       <c r="T140" s="4">
-        <f>C140*K$2+D140*L$2+E140*M$2+F140*N$2+G140*O$2+H140*P$2+I140*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1367163</v>
       </c>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51102,17 +51098,17 @@
         <v>-1596</v>
       </c>
       <c r="T141" s="4">
-        <f>C141*K$2+D141*L$2+E141*M$2+F141*N$2+G141*O$2+H141*P$2+I141*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1371734</v>
       </c>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51145,17 +51141,17 @@
         <v>-2127</v>
       </c>
       <c r="T142" s="4">
-        <f>C142*K$2+D142*L$2+E142*M$2+F142*N$2+G142*O$2+H142*P$2+I142*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1374364</v>
       </c>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51188,17 +51184,17 @@
         <v>-1335</v>
       </c>
       <c r="T143" s="4">
-        <f>C143*K$2+D143*L$2+E143*M$2+F143*N$2+G143*O$2+H143*P$2+I143*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1392519</v>
       </c>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51231,17 +51227,17 @@
         <v>-1326</v>
       </c>
       <c r="T144" s="4">
-        <f>C144*K$2+D144*L$2+E144*M$2+F144*N$2+G144*O$2+H144*P$2+I144*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1411079</v>
       </c>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51274,17 +51270,17 @@
         <v>-777</v>
       </c>
       <c r="T145" s="4">
-        <f>C145*K$2+D145*L$2+E145*M$2+F145*N$2+G145*O$2+H145*P$2+I145*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1420087</v>
       </c>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51317,17 +51313,17 @@
         <v>-2118</v>
       </c>
       <c r="T146" s="4">
-        <f>C146*K$2+D146*L$2+E146*M$2+F146*N$2+G146*O$2+H146*P$2+I146*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1424926</v>
       </c>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51360,17 +51356,17 @@
         <v>-945</v>
       </c>
       <c r="T147" s="4">
-        <f>C147*K$2+D147*L$2+E147*M$2+F147*N$2+G147*O$2+H147*P$2+I147*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1437740</v>
       </c>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51403,17 +51399,17 @@
         <v>-1047</v>
       </c>
       <c r="T148" s="4">
-        <f>C148*K$2+D148*L$2+E148*M$2+F148*N$2+G148*O$2+H148*P$2+I148*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1469088</v>
       </c>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51446,17 +51442,17 @@
         <v>-1113</v>
       </c>
       <c r="T149" s="4">
-        <f>C149*K$2+D149*L$2+E149*M$2+F149*N$2+G149*O$2+H149*P$2+I149*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1470295</v>
       </c>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51489,17 +51485,17 @@
         <v>-1020</v>
       </c>
       <c r="T150" s="4">
-        <f>C150*K$2+D150*L$2+E150*M$2+F150*N$2+G150*O$2+H150*P$2+I150*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1470296</v>
       </c>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51532,17 +51528,17 @@
         <v>-1734</v>
       </c>
       <c r="T151" s="4">
-        <f>C151*K$2+D151*L$2+E151*M$2+F151*N$2+G151*O$2+H151*P$2+I151*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1509975</v>
       </c>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51575,17 +51571,17 @@
         <v>-1335</v>
       </c>
       <c r="T152" s="4">
-        <f>C152*K$2+D152*L$2+E152*M$2+F152*N$2+G152*O$2+H152*P$2+I152*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1544487</v>
       </c>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51618,17 +51614,17 @@
         <v>-1713</v>
       </c>
       <c r="T153" s="4">
-        <f>C153*K$2+D153*L$2+E153*M$2+F153*N$2+G153*O$2+H153*P$2+I153*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1574664</v>
       </c>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51661,17 +51657,17 @@
         <v>-1413</v>
       </c>
       <c r="T154" s="4">
-        <f>C154*K$2+D154*L$2+E154*M$2+F154*N$2+G154*O$2+H154*P$2+I154*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1604188</v>
       </c>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51704,17 +51700,17 @@
         <v>-1467</v>
       </c>
       <c r="T155" s="4">
-        <f>C155*K$2+D155*L$2+E155*M$2+F155*N$2+G155*O$2+H155*P$2+I155*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1608247</v>
       </c>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51747,17 +51743,17 @@
         <v>-1455</v>
       </c>
       <c r="T156" s="4">
-        <f>C156*K$2+D156*L$2+E156*M$2+F156*N$2+G156*O$2+H156*P$2+I156*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1623130</v>
       </c>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51790,17 +51786,17 @@
         <v>-2220</v>
       </c>
       <c r="T157" s="4">
-        <f>C157*K$2+D157*L$2+E157*M$2+F157*N$2+G157*O$2+H157*P$2+I157*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1752124</v>
       </c>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1318816</v>
       </c>
     </row>
@@ -51833,17 +51829,17 @@
         <v>-1197</v>
       </c>
       <c r="T158" s="4">
-        <f>C158*K$2+D158*L$2+E158*M$2+F158*N$2+G158*O$2+H158*P$2+I158*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1285765</v>
       </c>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33051</v>
       </c>
     </row>
@@ -51876,17 +51872,17 @@
         <v>-813</v>
       </c>
       <c r="T159" s="4">
-        <f>C159*K$2+D159*L$2+E159*M$2+F159*N$2+G159*O$2+H159*P$2+I159*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1275460</v>
       </c>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43356</v>
       </c>
     </row>
@@ -51919,17 +51915,17 @@
         <v>-672</v>
       </c>
       <c r="T160" s="4">
-        <f>C160*K$2+D160*L$2+E160*M$2+F160*N$2+G160*O$2+H160*P$2+I160*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1272558</v>
       </c>
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>46258</v>
       </c>
     </row>
@@ -51962,17 +51958,17 @@
         <v>-1593</v>
       </c>
       <c r="T161" s="4">
-        <f>C161*K$2+D161*L$2+E161*M$2+F161*N$2+G161*O$2+H161*P$2+I161*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1267116</v>
       </c>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>51700</v>
       </c>
     </row>
@@ -52005,17 +52001,17 @@
         <v>-1599</v>
       </c>
       <c r="T162" s="4">
-        <f>C162*K$2+D162*L$2+E162*M$2+F162*N$2+G162*O$2+H162*P$2+I162*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1244539</v>
       </c>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74277</v>
       </c>
     </row>
@@ -52048,17 +52044,17 @@
         <v>-681</v>
       </c>
       <c r="T163" s="4">
-        <f>C163*K$2+D163*L$2+E163*M$2+F163*N$2+G163*O$2+H163*P$2+I163*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1127236</v>
       </c>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>191580</v>
       </c>
     </row>
@@ -52091,17 +52087,17 @@
         <v>-1206</v>
       </c>
       <c r="T164" s="4">
-        <f>C164*K$2+D164*L$2+E164*M$2+F164*N$2+G164*O$2+H164*P$2+I164*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1122207</v>
       </c>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>196609</v>
       </c>
     </row>
@@ -52134,17 +52130,17 @@
         <v>-792</v>
       </c>
       <c r="T165" s="4">
-        <f>C165*K$2+D165*L$2+E165*M$2+F165*N$2+G165*O$2+H165*P$2+I165*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1115629</v>
       </c>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>203187</v>
       </c>
     </row>
@@ -52177,17 +52173,17 @@
         <v>-1056</v>
       </c>
       <c r="T166" s="4">
-        <f>C166*K$2+D166*L$2+E166*M$2+F166*N$2+G166*O$2+H166*P$2+I166*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1096937</v>
       </c>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
       <c r="W166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>221879</v>
       </c>
     </row>
@@ -52220,17 +52216,17 @@
         <v>-1602</v>
       </c>
       <c r="T167" s="4">
-        <f>C167*K$2+D167*L$2+E167*M$2+F167*N$2+G167*O$2+H167*P$2+I167*Q$2+R$2</f>
+        <f t="shared" si="8"/>
         <v>-1060021</v>
       </c>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
       <c r="W167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>258795</v>
       </c>
     </row>
@@ -52263,17 +52259,17 @@
         <v>-1470</v>
       </c>
       <c r="T168" s="4">
-        <f>C168*K$2+D168*L$2+E168*M$2+F168*N$2+G168*O$2+H168*P$2+I168*Q$2+R$2</f>
+        <f t="shared" ref="T168:T196" si="11">C168*K$2+D168*L$2+E168*M$2+F168*N$2+G168*O$2+H168*P$2+I168*Q$2+R$2</f>
         <v>-1056709</v>
       </c>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>262107</v>
       </c>
     </row>
@@ -52306,17 +52302,17 @@
         <v>-1206</v>
       </c>
       <c r="T169" s="4">
-        <f>C169*K$2+D169*L$2+E169*M$2+F169*N$2+G169*O$2+H169*P$2+I169*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-1044595</v>
       </c>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>274221</v>
       </c>
     </row>
@@ -52349,17 +52345,17 @@
         <v>-546</v>
       </c>
       <c r="T170" s="4">
-        <f>C170*K$2+D170*L$2+E170*M$2+F170*N$2+G170*O$2+H170*P$2+I170*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-1043272</v>
       </c>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>275544</v>
       </c>
     </row>
@@ -52392,17 +52388,17 @@
         <v>-1068</v>
       </c>
       <c r="T171" s="4">
-        <f>C171*K$2+D171*L$2+E171*M$2+F171*N$2+G171*O$2+H171*P$2+I171*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-1037008</v>
       </c>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>281808</v>
       </c>
     </row>
@@ -52435,17 +52431,17 @@
         <v>-1464</v>
       </c>
       <c r="T172" s="4">
-        <f>C172*K$2+D172*L$2+E172*M$2+F172*N$2+G172*O$2+H172*P$2+I172*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-1013455</v>
       </c>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>305361</v>
       </c>
     </row>
@@ -52478,17 +52474,17 @@
         <v>-1413</v>
       </c>
       <c r="T173" s="4">
-        <f>C173*K$2+D173*L$2+E173*M$2+F173*N$2+G173*O$2+H173*P$2+I173*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-965354</v>
       </c>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>353462</v>
       </c>
     </row>
@@ -52521,17 +52517,17 @@
         <v>-1992</v>
       </c>
       <c r="T174" s="4">
-        <f>C174*K$2+D174*L$2+E174*M$2+F174*N$2+G174*O$2+H174*P$2+I174*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-917216</v>
       </c>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>401600</v>
       </c>
     </row>
@@ -52564,17 +52560,17 @@
         <v>-942</v>
       </c>
       <c r="T175" s="4">
-        <f>C175*K$2+D175*L$2+E175*M$2+F175*N$2+G175*O$2+H175*P$2+I175*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-912764</v>
       </c>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>406052</v>
       </c>
     </row>
@@ -52607,17 +52603,17 @@
         <v>-1566</v>
       </c>
       <c r="T176" s="4">
-        <f>C176*K$2+D176*L$2+E176*M$2+F176*N$2+G176*O$2+H176*P$2+I176*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-896247</v>
       </c>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>422569</v>
       </c>
     </row>
@@ -52650,17 +52646,17 @@
         <v>-1434</v>
       </c>
       <c r="T177" s="4">
-        <f>C177*K$2+D177*L$2+E177*M$2+F177*N$2+G177*O$2+H177*P$2+I177*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-895801</v>
       </c>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>423015</v>
       </c>
     </row>
@@ -52693,17 +52689,17 @@
         <v>-1161</v>
       </c>
       <c r="T178" s="4">
-        <f>C178*K$2+D178*L$2+E178*M$2+F178*N$2+G178*O$2+H178*P$2+I178*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-855764</v>
       </c>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
       <c r="W178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>463052</v>
       </c>
     </row>
@@ -52736,17 +52732,17 @@
         <v>-792</v>
       </c>
       <c r="T179" s="4">
-        <f>C179*K$2+D179*L$2+E179*M$2+F179*N$2+G179*O$2+H179*P$2+I179*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-849623</v>
       </c>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
       <c r="W179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>469193</v>
       </c>
     </row>
@@ -52779,17 +52775,17 @@
         <v>-522</v>
       </c>
       <c r="T180" s="4">
-        <f>C180*K$2+D180*L$2+E180*M$2+F180*N$2+G180*O$2+H180*P$2+I180*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-849336</v>
       </c>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
       <c r="W180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>469480</v>
       </c>
     </row>
@@ -52822,17 +52818,17 @@
         <v>-1599</v>
       </c>
       <c r="T181" s="4">
-        <f>C181*K$2+D181*L$2+E181*M$2+F181*N$2+G181*O$2+H181*P$2+I181*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-830178</v>
       </c>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>488638</v>
       </c>
     </row>
@@ -52865,17 +52861,17 @@
         <v>-588</v>
       </c>
       <c r="T182" s="4">
-        <f>C182*K$2+D182*L$2+E182*M$2+F182*N$2+G182*O$2+H182*P$2+I182*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-800419</v>
       </c>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
       <c r="W182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>518397</v>
       </c>
     </row>
@@ -52908,17 +52904,17 @@
         <v>-1596</v>
       </c>
       <c r="T183" s="4">
-        <f>C183*K$2+D183*L$2+E183*M$2+F183*N$2+G183*O$2+H183*P$2+I183*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-799482</v>
       </c>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
       <c r="W183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>519334</v>
       </c>
     </row>
@@ -52951,17 +52947,17 @@
         <v>-1728</v>
       </c>
       <c r="T184" s="4">
-        <f>C184*K$2+D184*L$2+E184*M$2+F184*N$2+G184*O$2+H184*P$2+I184*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-784823</v>
       </c>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
       <c r="W184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>533993</v>
       </c>
     </row>
@@ -52994,17 +52990,17 @@
         <v>-1860</v>
       </c>
       <c r="T185" s="4">
-        <f>C185*K$2+D185*L$2+E185*M$2+F185*N$2+G185*O$2+H185*P$2+I185*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-742755</v>
       </c>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>576061</v>
       </c>
     </row>
@@ -53037,17 +53033,17 @@
         <v>-1074</v>
       </c>
       <c r="T186" s="4">
-        <f>C186*K$2+D186*L$2+E186*M$2+F186*N$2+G186*O$2+H186*P$2+I186*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-730287</v>
       </c>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
       <c r="W186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>588529</v>
       </c>
     </row>
@@ -53080,17 +53076,17 @@
         <v>-2367</v>
       </c>
       <c r="T187" s="4">
-        <f>C187*K$2+D187*L$2+E187*M$2+F187*N$2+G187*O$2+H187*P$2+I187*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-707159</v>
       </c>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>611657</v>
       </c>
     </row>
@@ -53123,17 +53119,17 @@
         <v>-2112</v>
       </c>
       <c r="T188" s="4">
-        <f>C188*K$2+D188*L$2+E188*M$2+F188*N$2+G188*O$2+H188*P$2+I188*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-646983</v>
       </c>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
       <c r="W188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>671833</v>
       </c>
     </row>
@@ -53166,17 +53162,17 @@
         <v>-1068</v>
       </c>
       <c r="T189" s="4">
-        <f>C189*K$2+D189*L$2+E189*M$2+F189*N$2+G189*O$2+H189*P$2+I189*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-629001</v>
       </c>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
       <c r="W189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>689815</v>
       </c>
     </row>
@@ -53209,17 +53205,17 @@
         <v>-654</v>
       </c>
       <c r="T190" s="4">
-        <f>C190*K$2+D190*L$2+E190*M$2+F190*N$2+G190*O$2+H190*P$2+I190*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-619299</v>
       </c>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
       <c r="W190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>699517</v>
       </c>
     </row>
@@ -53252,17 +53248,17 @@
         <v>-129</v>
       </c>
       <c r="T191" s="4">
-        <f>C191*K$2+D191*L$2+E191*M$2+F191*N$2+G191*O$2+H191*P$2+I191*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-605673</v>
       </c>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>713143</v>
       </c>
     </row>
@@ -53295,17 +53291,17 @@
         <v>-909</v>
       </c>
       <c r="T192" s="4">
-        <f>C192*K$2+D192*L$2+E192*M$2+F192*N$2+G192*O$2+H192*P$2+I192*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-599583</v>
       </c>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
       <c r="W192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>719233</v>
       </c>
     </row>
@@ -53338,17 +53334,17 @@
         <v>-654</v>
       </c>
       <c r="T193" s="4">
-        <f>C193*K$2+D193*L$2+E193*M$2+F193*N$2+G193*O$2+H193*P$2+I193*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-598041</v>
       </c>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
       <c r="W193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>720775</v>
       </c>
     </row>
@@ -53381,17 +53377,17 @@
         <v>-681</v>
       </c>
       <c r="T194" s="4">
-        <f>C194*K$2+D194*L$2+E194*M$2+F194*N$2+G194*O$2+H194*P$2+I194*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-538428</v>
       </c>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
       <c r="W194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>780388</v>
       </c>
     </row>
@@ -53424,17 +53420,17 @@
         <v>-282</v>
       </c>
       <c r="T195" s="4">
-        <f>C195*K$2+D195*L$2+E195*M$2+F195*N$2+G195*O$2+H195*P$2+I195*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-521583</v>
       </c>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>797233</v>
       </c>
     </row>
@@ -53467,17 +53463,17 @@
         <v>-1329</v>
       </c>
       <c r="T196" s="4">
-        <f>C196*K$2+D196*L$2+E196*M$2+F196*N$2+G196*O$2+H196*P$2+I196*Q$2+R$2</f>
+        <f t="shared" si="11"/>
         <v>-463715</v>
       </c>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
       <c r="W196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>855101</v>
       </c>
     </row>
@@ -53740,7 +53736,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="4">
-        <f>C6*K$2+D6*L$2+E6*M$2+F6*N$2+G6*O$2+H6*P$2+I6*Q$2+R$2</f>
+        <f t="shared" ref="T6:T37" si="0">C6*K$2+D6*L$2+E6*M$2+F6*N$2+G6*O$2+H6*P$2+I6*Q$2+R$2</f>
         <v>222312</v>
       </c>
       <c r="U6" s="4"/>
@@ -53808,17 +53804,17 @@
         <v>73266</v>
       </c>
       <c r="T7" s="4">
-        <f>C7*K$2+D7*L$2+E7*M$2+F7*N$2+G7*O$2+H7*P$2+I7*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>284539</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7">
-        <f t="shared" ref="W7:W70" si="0">IF(T7&gt;W$2,1,0)</f>
+        <f t="shared" ref="W7:W70" si="1">IF(T7&gt;W$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:X70" si="1">IF(W7=0,W$2-T7,W$2)</f>
+        <f t="shared" ref="X7:X70" si="2">IF(W7=0,W$2-T7,W$2)</f>
         <v>374934</v>
       </c>
     </row>
@@ -53876,17 +53872,17 @@
         <v>36633</v>
       </c>
       <c r="T8" s="4">
-        <f>C8*K$2+D8*L$2+E8*M$2+F8*N$2+G8*O$2+H8*P$2+I8*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>285076</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>374397</v>
       </c>
     </row>
@@ -53944,17 +53940,17 @@
         <v>18316</v>
       </c>
       <c r="T9" s="4">
-        <f>C9*K$2+D9*L$2+E9*M$2+F9*N$2+G9*O$2+H9*P$2+I9*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>311930</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347543</v>
       </c>
     </row>
@@ -53989,17 +53985,17 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="T10" s="4">
-        <f>C10*K$2+D10*L$2+E10*M$2+F10*N$2+G10*O$2+H10*P$2+I10*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>377933</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>281540</v>
       </c>
     </row>
@@ -54034,17 +54030,17 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="T11" s="4">
-        <f>C11*K$2+D11*L$2+E11*M$2+F11*N$2+G11*O$2+H11*P$2+I11*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>392512</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>266961</v>
       </c>
     </row>
@@ -54079,17 +54075,17 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="T12" s="4">
-        <f>C12*K$2+D12*L$2+E12*M$2+F12*N$2+G12*O$2+H12*P$2+I12*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>401907</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>257566</v>
       </c>
     </row>
@@ -54122,17 +54118,17 @@
         <v>783</v>
       </c>
       <c r="T13" s="4">
-        <f>C13*K$2+D13*L$2+E13*M$2+F13*N$2+G13*O$2+H13*P$2+I13*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>427027</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232446</v>
       </c>
     </row>
@@ -54167,17 +54163,17 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="T14" s="4">
-        <f>C14*K$2+D14*L$2+E14*M$2+F14*N$2+G14*O$2+H14*P$2+I14*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>441350</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>218123</v>
       </c>
     </row>
@@ -54212,17 +54208,17 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="T15" s="4">
-        <f>C15*K$2+D15*L$2+E15*M$2+F15*N$2+G15*O$2+H15*P$2+I15*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>443627</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215846</v>
       </c>
     </row>
@@ -54257,17 +54253,17 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="T16" s="4">
-        <f>C16*K$2+D16*L$2+E16*M$2+F16*N$2+G16*O$2+H16*P$2+I16*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>524610</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134863</v>
       </c>
     </row>
@@ -54300,17 +54296,17 @@
         <v>921</v>
       </c>
       <c r="T17" s="10">
-        <f>C17*K$2+D17*L$2+E17*M$2+F17*N$2+G17*O$2+H17*P$2+I17*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>599764</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59709</v>
       </c>
     </row>
@@ -54345,17 +54341,17 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="T18" s="4">
-        <f>C18*K$2+D18*L$2+E18*M$2+F18*N$2+G18*O$2+H18*P$2+I18*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>612770</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46703</v>
       </c>
     </row>
@@ -54388,17 +54384,17 @@
         <v>636</v>
       </c>
       <c r="T19" s="10">
-        <f>C19*K$2+D19*L$2+E19*M$2+F19*N$2+G19*O$2+H19*P$2+I19*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>639665</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19808</v>
       </c>
     </row>
@@ -54441,17 +54437,17 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="4">
-        <f>C20*K$2+D20*L$2+E20*M$2+F20*N$2+G20*O$2+H20*P$2+I20*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1431739</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54486,17 +54482,17 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="T21" s="4">
-        <f>C21*K$2+D21*L$2+E21*M$2+F21*N$2+G21*O$2+H21*P$2+I21*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1422011</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54529,17 +54525,17 @@
         <v>2745</v>
       </c>
       <c r="T22" s="4">
-        <f>C22*K$2+D22*L$2+E22*M$2+F22*N$2+G22*O$2+H22*P$2+I22*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1373438</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54572,17 +54568,17 @@
         <v>1953</v>
       </c>
       <c r="T23" s="4">
-        <f>C23*K$2+D23*L$2+E23*M$2+F23*N$2+G23*O$2+H23*P$2+I23*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1363681</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54617,17 +54613,17 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="T24" s="4">
-        <f>C24*K$2+D24*L$2+E24*M$2+F24*N$2+G24*O$2+H24*P$2+I24*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1363090</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54660,17 +54656,17 @@
         <v>2751</v>
       </c>
       <c r="T25" s="4">
-        <f>C25*K$2+D25*L$2+E25*M$2+F25*N$2+G25*O$2+H25*P$2+I25*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1359115</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54703,17 +54699,17 @@
         <v>3048</v>
       </c>
       <c r="T26" s="4">
-        <f>C26*K$2+D26*L$2+E26*M$2+F26*N$2+G26*O$2+H26*P$2+I26*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1328553</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54746,17 +54742,17 @@
         <v>2358</v>
       </c>
       <c r="T27" s="4">
-        <f>C27*K$2+D27*L$2+E27*M$2+F27*N$2+G27*O$2+H27*P$2+I27*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1313193</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54790,17 +54786,17 @@
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4">
-        <f>C28*K$2+D28*L$2+E28*M$2+F28*N$2+G28*O$2+H28*P$2+I28*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1254387</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54835,17 +54831,17 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="T29" s="4">
-        <f>C29*K$2+D29*L$2+E29*M$2+F29*N$2+G29*O$2+H29*P$2+I29*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1197252</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54878,17 +54874,17 @@
         <v>1953</v>
       </c>
       <c r="T30" s="4">
-        <f>C30*K$2+D30*L$2+E30*M$2+F30*N$2+G30*O$2+H30*P$2+I30*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1196338</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54923,17 +54919,17 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="T31" s="4">
-        <f>C31*K$2+D31*L$2+E31*M$2+F31*N$2+G31*O$2+H31*P$2+I31*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1174882</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -54966,17 +54962,17 @@
         <v>1887</v>
       </c>
       <c r="T32" s="4">
-        <f>C32*K$2+D32*L$2+E32*M$2+F32*N$2+G32*O$2+H32*P$2+I32*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1152732</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55009,17 +55005,17 @@
         <v>1293</v>
       </c>
       <c r="T33" s="4">
-        <f>C33*K$2+D33*L$2+E33*M$2+F33*N$2+G33*O$2+H33*P$2+I33*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1141254</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55052,17 +55048,17 @@
         <v>2112</v>
       </c>
       <c r="T34" s="4">
-        <f>C34*K$2+D34*L$2+E34*M$2+F34*N$2+G34*O$2+H34*P$2+I34*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1140959</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55095,17 +55091,17 @@
         <v>1170</v>
       </c>
       <c r="T35" s="4">
-        <f>C35*K$2+D35*L$2+E35*M$2+F35*N$2+G35*O$2+H35*P$2+I35*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1133537</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55140,17 +55136,17 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="T36" s="4">
-        <f>C36*K$2+D36*L$2+E36*M$2+F36*N$2+G36*O$2+H36*P$2+I36*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1135368</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55183,17 +55179,17 @@
         <v>2757</v>
       </c>
       <c r="T37" s="4">
-        <f>C37*K$2+D37*L$2+E37*M$2+F37*N$2+G37*O$2+H37*P$2+I37*Q$2+R$2</f>
+        <f t="shared" si="0"/>
         <v>1108520</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55226,17 +55222,17 @@
         <v>2085</v>
       </c>
       <c r="T38" s="4">
-        <f>C38*K$2+D38*L$2+E38*M$2+F38*N$2+G38*O$2+H38*P$2+I38*Q$2+R$2</f>
+        <f t="shared" ref="T38:T72" si="3">C38*K$2+D38*L$2+E38*M$2+F38*N$2+G38*O$2+H38*P$2+I38*Q$2+R$2</f>
         <v>1106361</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55269,17 +55265,17 @@
         <v>1953</v>
       </c>
       <c r="T39" s="4">
-        <f>C39*K$2+D39*L$2+E39*M$2+F39*N$2+G39*O$2+H39*P$2+I39*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1097033</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55312,17 +55308,17 @@
         <v>1635</v>
       </c>
       <c r="T40" s="4">
-        <f>C40*K$2+D40*L$2+E40*M$2+F40*N$2+G40*O$2+H40*P$2+I40*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1089272</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55355,17 +55351,17 @@
         <v>1425</v>
       </c>
       <c r="T41" s="4">
-        <f>C41*K$2+D41*L$2+E41*M$2+F41*N$2+G41*O$2+H41*P$2+I41*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1063165</v>
       </c>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55398,17 +55394,17 @@
         <v>1842</v>
       </c>
       <c r="T42" s="4">
-        <f>C42*K$2+D42*L$2+E42*M$2+F42*N$2+G42*O$2+H42*P$2+I42*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1049716</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55441,17 +55437,17 @@
         <v>1245</v>
       </c>
       <c r="T43" s="4">
-        <f>C43*K$2+D43*L$2+E43*M$2+F43*N$2+G43*O$2+H43*P$2+I43*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1048484</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55484,17 +55480,17 @@
         <v>1725</v>
       </c>
       <c r="T44" s="4">
-        <f>C44*K$2+D44*L$2+E44*M$2+F44*N$2+G44*O$2+H44*P$2+I44*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1036741</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55527,17 +55523,17 @@
         <v>1689</v>
       </c>
       <c r="T45" s="4">
-        <f>C45*K$2+D45*L$2+E45*M$2+F45*N$2+G45*O$2+H45*P$2+I45*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1035299</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55570,17 +55566,17 @@
         <v>1557</v>
       </c>
       <c r="T46" s="4">
-        <f>C46*K$2+D46*L$2+E46*M$2+F46*N$2+G46*O$2+H46*P$2+I46*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1020839</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55613,17 +55609,17 @@
         <v>1998</v>
       </c>
       <c r="T47" s="4">
-        <f>C47*K$2+D47*L$2+E47*M$2+F47*N$2+G47*O$2+H47*P$2+I47*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1016126</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55658,17 +55654,17 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="T48" s="4">
-        <f>C48*K$2+D48*L$2+E48*M$2+F48*N$2+G48*O$2+H48*P$2+I48*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1017343</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55701,17 +55697,17 @@
         <v>1557</v>
       </c>
       <c r="T49" s="4">
-        <f>C49*K$2+D49*L$2+E49*M$2+F49*N$2+G49*O$2+H49*P$2+I49*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1010861</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X49" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55744,17 +55740,17 @@
         <v>1080</v>
       </c>
       <c r="T50" s="4">
-        <f>C50*K$2+D50*L$2+E50*M$2+F50*N$2+G50*O$2+H50*P$2+I50*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1005905</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55789,17 +55785,17 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="T51" s="4">
-        <f>C51*K$2+D51*L$2+E51*M$2+F51*N$2+G51*O$2+H51*P$2+I51*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>1007509</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55832,17 +55828,17 @@
         <v>1035</v>
       </c>
       <c r="T52" s="4">
-        <f>C52*K$2+D52*L$2+E52*M$2+F52*N$2+G52*O$2+H52*P$2+I52*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>999728</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55875,17 +55871,17 @@
         <v>780</v>
       </c>
       <c r="T53" s="4">
-        <f>C53*K$2+D53*L$2+E53*M$2+F53*N$2+G53*O$2+H53*P$2+I53*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>987830</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55918,17 +55914,17 @@
         <v>648</v>
       </c>
       <c r="T54" s="4">
-        <f>C54*K$2+D54*L$2+E54*M$2+F54*N$2+G54*O$2+H54*P$2+I54*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>980073</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -55961,17 +55957,17 @@
         <v>1374</v>
       </c>
       <c r="T55" s="4">
-        <f>C55*K$2+D55*L$2+E55*M$2+F55*N$2+G55*O$2+H55*P$2+I55*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>972090</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56006,17 +56002,17 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="T56" s="4">
-        <f>C56*K$2+D56*L$2+E56*M$2+F56*N$2+G56*O$2+H56*P$2+I56*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>959573</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56049,17 +56045,17 @@
         <v>1704</v>
       </c>
       <c r="T57" s="4">
-        <f>C57*K$2+D57*L$2+E57*M$2+F57*N$2+G57*O$2+H57*P$2+I57*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>946671</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56092,17 +56088,17 @@
         <v>1989</v>
       </c>
       <c r="T58" s="4">
-        <f>C58*K$2+D58*L$2+E58*M$2+F58*N$2+G58*O$2+H58*P$2+I58*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>933492</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56135,17 +56131,17 @@
         <v>2217</v>
       </c>
       <c r="T59" s="4">
-        <f>C59*K$2+D59*L$2+E59*M$2+F59*N$2+G59*O$2+H59*P$2+I59*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>914056</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56178,17 +56174,17 @@
         <v>1113</v>
       </c>
       <c r="T60" s="4">
-        <f>C60*K$2+D60*L$2+E60*M$2+F60*N$2+G60*O$2+H60*P$2+I60*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>892246</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56223,17 +56219,17 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="T61" s="4">
-        <f>C61*K$2+D61*L$2+E61*M$2+F61*N$2+G61*O$2+H61*P$2+I61*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>888759</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56266,17 +56262,17 @@
         <v>1284</v>
       </c>
       <c r="T62" s="4">
-        <f>C62*K$2+D62*L$2+E62*M$2+F62*N$2+G62*O$2+H62*P$2+I62*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>871900</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56311,17 +56307,17 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="T63" s="4">
-        <f>C63*K$2+D63*L$2+E63*M$2+F63*N$2+G63*O$2+H63*P$2+I63*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>850789</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56354,17 +56350,17 @@
         <v>1155</v>
       </c>
       <c r="T64" s="4">
-        <f>C64*K$2+D64*L$2+E64*M$2+F64*N$2+G64*O$2+H64*P$2+I64*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>843327</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56397,17 +56393,17 @@
         <v>909</v>
       </c>
       <c r="T65" s="4">
-        <f>C65*K$2+D65*L$2+E65*M$2+F65*N$2+G65*O$2+H65*P$2+I65*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>824749</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56440,17 +56436,17 @@
         <v>1431</v>
       </c>
       <c r="T66" s="4">
-        <f>C66*K$2+D66*L$2+E66*M$2+F66*N$2+G66*O$2+H66*P$2+I66*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>815918</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56483,17 +56479,17 @@
         <v>1578</v>
       </c>
       <c r="T67" s="4">
-        <f>C67*K$2+D67*L$2+E67*M$2+F67*N$2+G67*O$2+H67*P$2+I67*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>791206</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56526,17 +56522,17 @@
         <v>1311</v>
       </c>
       <c r="T68" s="4">
-        <f>C68*K$2+D68*L$2+E68*M$2+F68*N$2+G68*O$2+H68*P$2+I68*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>758841</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56569,17 +56565,17 @@
         <v>1185</v>
       </c>
       <c r="T69" s="4">
-        <f>C69*K$2+D69*L$2+E69*M$2+F69*N$2+G69*O$2+H69*P$2+I69*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>741155</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56614,17 +56610,17 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="T70" s="4">
-        <f>C70*K$2+D70*L$2+E70*M$2+F70*N$2+G70*O$2+H70*P$2+I70*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>673186</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659473</v>
       </c>
     </row>
@@ -56657,17 +56653,17 @@
         <v>1299</v>
       </c>
       <c r="T71" s="4">
-        <f>C71*K$2+D71*L$2+E71*M$2+F71*N$2+G71*O$2+H71*P$2+I71*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>662688</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71">
-        <f t="shared" ref="W71:W72" si="2">IF(T71&gt;W$2,1,0)</f>
+        <f t="shared" ref="W71:W72" si="4">IF(T71&gt;W$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="X71">
-        <f t="shared" ref="X71:X72" si="3">IF(W71=0,W$2-T71,W$2)</f>
+        <f t="shared" ref="X71:X72" si="5">IF(W71=0,W$2-T71,W$2)</f>
         <v>659473</v>
       </c>
     </row>
@@ -56710,7 +56706,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="4">
-        <f>C72*K$2+D72*L$2+E72*M$2+F72*N$2+G72*O$2+H72*P$2+I72*Q$2+R$2</f>
+        <f t="shared" si="3"/>
         <v>660798</v>
       </c>
       <c r="U72" s="4">
@@ -56719,11 +56715,11 @@
       </c>
       <c r="V72" s="4"/>
       <c r="W72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>659473</v>
       </c>
     </row>
@@ -56756,7 +56752,7 @@
         <v>1029</v>
       </c>
       <c r="T73" s="4">
-        <f t="shared" ref="T73:T136" si="4">C73*K$2+D73*L$2+E73*M$2+F73*N$2+G73*O$2+H73*P$2+I73*Q$2+R$2</f>
+        <f t="shared" ref="T73:T135" si="6">C73*K$2+D73*L$2+E73*M$2+F73*N$2+G73*O$2+H73*P$2+I73*Q$2+R$2</f>
         <v>659473</v>
       </c>
       <c r="U73" s="4">
@@ -56794,7 +56790,7 @@
         <v>-150</v>
       </c>
       <c r="T74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>657706</v>
       </c>
       <c r="U74" s="4"/>
@@ -56829,7 +56825,7 @@
         <v>-3</v>
       </c>
       <c r="T75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>588301</v>
       </c>
       <c r="U75" s="4"/>
@@ -56864,7 +56860,7 @@
         <v>-21</v>
       </c>
       <c r="T76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>504304</v>
       </c>
       <c r="U76" s="4"/>
@@ -56899,7 +56895,7 @@
         <v>-1077</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>510012</v>
       </c>
       <c r="U77" s="4"/>
@@ -56934,7 +56930,7 @@
         <v>-1329</v>
       </c>
       <c r="T78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>471720</v>
       </c>
       <c r="U78" s="4"/>
@@ -56969,7 +56965,7 @@
         <v>-18</v>
       </c>
       <c r="T79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>330636</v>
       </c>
       <c r="U79" s="4"/>
@@ -57004,7 +57000,7 @@
         <v>-1206</v>
       </c>
       <c r="T80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>383729</v>
       </c>
       <c r="U80" s="4"/>
@@ -57039,7 +57035,7 @@
         <v>-936</v>
       </c>
       <c r="T81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>353864</v>
       </c>
       <c r="U81" s="4"/>
@@ -57074,7 +57070,7 @@
         <v>-942</v>
       </c>
       <c r="T82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>343770</v>
       </c>
       <c r="U82" s="4"/>
@@ -57109,7 +57105,7 @@
         <v>-918</v>
       </c>
       <c r="T83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>344758</v>
       </c>
       <c r="U83" s="4"/>
@@ -57144,7 +57140,7 @@
         <v>-1464</v>
       </c>
       <c r="T84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>380098</v>
       </c>
       <c r="U84" s="4"/>
@@ -57179,7 +57175,7 @@
         <v>-522</v>
       </c>
       <c r="T85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>296379</v>
       </c>
       <c r="U85" s="4"/>
@@ -57214,7 +57210,7 @@
         <v>-285</v>
       </c>
       <c r="T86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>265219</v>
       </c>
       <c r="U86" s="4"/>
@@ -57249,7 +57245,7 @@
         <v>-549</v>
       </c>
       <c r="T87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>243968</v>
       </c>
       <c r="U87" s="4"/>
@@ -57284,7 +57280,7 @@
         <v>-141</v>
       </c>
       <c r="T88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>203246</v>
       </c>
       <c r="U88" s="4"/>
@@ -57319,7 +57315,7 @@
         <v>-1599</v>
       </c>
       <c r="T89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>325831</v>
       </c>
       <c r="U89" s="4"/>
@@ -57354,7 +57350,7 @@
         <v>-1194</v>
       </c>
       <c r="T90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>275571</v>
       </c>
       <c r="U90" s="4"/>
@@ -57389,7 +57385,7 @@
         <v>-675</v>
       </c>
       <c r="T91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190097</v>
       </c>
       <c r="U91" s="4"/>
@@ -57424,7 +57420,7 @@
         <v>-1734</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>270784</v>
       </c>
       <c r="U92" s="4"/>
@@ -57459,7 +57455,7 @@
         <v>-1077</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>218381</v>
       </c>
       <c r="U93" s="4"/>
@@ -57494,7 +57490,7 @@
         <v>-1338</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>215177</v>
       </c>
       <c r="U94" s="4"/>
@@ -57529,7 +57525,7 @@
         <v>-1152</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>168519</v>
       </c>
       <c r="U95" s="4"/>
@@ -57564,7 +57560,7 @@
         <v>-702</v>
       </c>
       <c r="T96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>127217</v>
       </c>
       <c r="U96" s="4"/>
@@ -57599,7 +57595,7 @@
         <v>-1269</v>
       </c>
       <c r="T97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>171591</v>
       </c>
       <c r="U97" s="4"/>
@@ -57634,7 +57630,7 @@
         <v>-414</v>
       </c>
       <c r="T98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>95523</v>
       </c>
       <c r="U98" s="4"/>
@@ -57669,7 +57665,7 @@
         <v>-945</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>119218</v>
       </c>
       <c r="U99" s="4"/>
@@ -57704,7 +57700,7 @@
         <v>-705</v>
       </c>
       <c r="T100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>79625</v>
       </c>
       <c r="U100" s="4"/>
@@ -57739,7 +57735,7 @@
         <v>-1170</v>
       </c>
       <c r="T101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>89681</v>
       </c>
       <c r="U101" s="4"/>
@@ -57774,7 +57770,7 @@
         <v>-1074</v>
       </c>
       <c r="T102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>79043</v>
       </c>
       <c r="U102" s="4"/>
@@ -57809,7 +57805,7 @@
         <v>-1206</v>
       </c>
       <c r="T103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>81730</v>
       </c>
       <c r="U103" s="4"/>
@@ -57844,7 +57840,7 @@
         <v>-1470</v>
       </c>
       <c r="T104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>98180</v>
       </c>
       <c r="U104" s="4"/>
@@ -57879,7 +57875,7 @@
         <v>-945</v>
       </c>
       <c r="T105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36466</v>
       </c>
       <c r="U105" s="4"/>
@@ -57914,7 +57910,7 @@
         <v>-930</v>
       </c>
       <c r="T106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36232</v>
       </c>
       <c r="U106" s="4"/>
@@ -57949,7 +57945,7 @@
         <v>-1488</v>
       </c>
       <c r="T107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>57732</v>
       </c>
       <c r="U107" s="4"/>
@@ -57984,7 +57980,7 @@
         <v>-1566</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59731</v>
       </c>
       <c r="U108" s="4"/>
@@ -58019,7 +58015,7 @@
         <v>-1734</v>
       </c>
       <c r="T109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70417</v>
       </c>
       <c r="U109" s="4"/>
@@ -58054,7 +58050,7 @@
         <v>-1599</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45177</v>
       </c>
       <c r="U110" s="4"/>
@@ -58089,7 +58085,7 @@
         <v>-1602</v>
       </c>
       <c r="T111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36043</v>
       </c>
       <c r="U111" s="4"/>
@@ -58124,7 +58120,7 @@
         <v>-2655</v>
       </c>
       <c r="T112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118992</v>
       </c>
       <c r="U112" s="4"/>
@@ -58161,7 +58157,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="T113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20148</v>
       </c>
       <c r="U113" s="4"/>
@@ -58196,7 +58192,7 @@
         <v>-1719</v>
       </c>
       <c r="T114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-16988</v>
       </c>
       <c r="U114" s="4"/>
@@ -58231,7 +58227,7 @@
         <v>-2259</v>
       </c>
       <c r="T115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28881</v>
       </c>
       <c r="U115" s="4"/>
@@ -58266,7 +58262,7 @@
         <v>-2187</v>
       </c>
       <c r="T116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13028</v>
       </c>
       <c r="U116" s="4"/>
@@ -58301,7 +58297,7 @@
         <v>-1068</v>
       </c>
       <c r="T117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-113143</v>
       </c>
       <c r="U117" s="4"/>
@@ -58336,7 +58332,7 @@
         <v>-1434</v>
       </c>
       <c r="T118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-100313</v>
       </c>
       <c r="U118" s="4"/>
@@ -58371,7 +58367,7 @@
         <v>-1311</v>
       </c>
       <c r="T119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-105679</v>
       </c>
       <c r="U119" s="4"/>
@@ -58406,7 +58402,7 @@
         <v>-2127</v>
       </c>
       <c r="T120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-43526</v>
       </c>
       <c r="U120" s="4"/>
@@ -58441,7 +58437,7 @@
         <v>-1599</v>
       </c>
       <c r="T121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-104206</v>
       </c>
       <c r="U121" s="4"/>
@@ -58476,7 +58472,7 @@
         <v>-2388</v>
       </c>
       <c r="T122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-58200</v>
       </c>
       <c r="U122" s="4"/>
@@ -58511,7 +58507,7 @@
         <v>-1338</v>
       </c>
       <c r="T123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-208776</v>
       </c>
       <c r="U123" s="4"/>
@@ -58546,7 +58542,7 @@
         <v>-2259</v>
       </c>
       <c r="T124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-172668</v>
       </c>
       <c r="U124" s="4"/>
@@ -58581,7 +58577,7 @@
         <v>-2127</v>
       </c>
       <c r="T125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-209945</v>
       </c>
       <c r="U125" s="4"/>
@@ -58616,7 +58612,7 @@
         <v>-2256</v>
       </c>
       <c r="T126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-212799</v>
       </c>
       <c r="U126" s="4"/>
@@ -58651,7 +58647,7 @@
         <v>-1995</v>
       </c>
       <c r="T127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-234374</v>
       </c>
       <c r="U127" s="4"/>
@@ -58686,7 +58682,7 @@
         <v>-2253</v>
       </c>
       <c r="T128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-217887</v>
       </c>
       <c r="U128" s="4"/>
@@ -58731,7 +58727,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
       <c r="T129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-291911</v>
       </c>
       <c r="U129" s="4"/>
@@ -58766,7 +58762,7 @@
         <v>-2781</v>
       </c>
       <c r="T130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-263716</v>
       </c>
       <c r="U130" s="4"/>
@@ -58801,7 +58797,7 @@
         <v>-1860</v>
       </c>
       <c r="T131" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-338222</v>
       </c>
       <c r="U131" s="4"/>
@@ -58836,7 +58832,7 @@
         <v>-3045</v>
       </c>
       <c r="T132" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-316673</v>
       </c>
       <c r="U132" s="4"/>
@@ -58873,7 +58869,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="T133" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-419882</v>
       </c>
       <c r="U133" s="4"/>
@@ -58918,7 +58914,7 @@
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
       <c r="T134" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-601683</v>
       </c>
       <c r="U134" s="4"/>
@@ -58963,7 +58959,7 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-656372</v>
       </c>
       <c r="U135" s="4">
@@ -59009,7 +59005,7 @@
         <v>-1593</v>
       </c>
       <c r="T136" s="4">
-        <f>C136*K$2+D136*L$2+E136*M$2+F136*N$2+G136*O$2+H136*P$2+I136*Q$2+R$2</f>
+        <f t="shared" ref="T136:T167" si="7">C136*K$2+D136*L$2+E136*M$2+F136*N$2+G136*O$2+H136*P$2+I136*Q$2+R$2</f>
         <v>-660751</v>
       </c>
       <c r="U136" s="4">
@@ -59055,17 +59051,17 @@
         <v>-1599</v>
       </c>
       <c r="T137" s="4">
-        <f>C137*K$2+D137*L$2+E137*M$2+F137*N$2+G137*O$2+H137*P$2+I137*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-661494</v>
       </c>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
       <c r="W137">
-        <f t="shared" ref="W137:W196" si="5">IF(T137&lt;X$2,1,0)</f>
+        <f t="shared" ref="W137:W196" si="8">IF(T137&lt;X$2,1,0)</f>
         <v>1</v>
       </c>
       <c r="X137">
-        <f t="shared" ref="X137:X196" si="6">IF(W137=0,T137-X$2,-X$2)</f>
+        <f t="shared" ref="X137:X196" si="9">IF(W137=0,T137-X$2,-X$2)</f>
         <v>656372</v>
       </c>
     </row>
@@ -59098,17 +59094,17 @@
         <v>-1206</v>
       </c>
       <c r="T138" s="4">
-        <f>C138*K$2+D138*L$2+E138*M$2+F138*N$2+G138*O$2+H138*P$2+I138*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-661867</v>
       </c>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
       <c r="W138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59141,17 +59137,17 @@
         <v>-1734</v>
       </c>
       <c r="T139" s="4">
-        <f>C139*K$2+D139*L$2+E139*M$2+F139*N$2+G139*O$2+H139*P$2+I139*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-674412</v>
       </c>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
       <c r="W139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59184,17 +59180,17 @@
         <v>-1602</v>
       </c>
       <c r="T140" s="4">
-        <f>C140*K$2+D140*L$2+E140*M$2+F140*N$2+G140*O$2+H140*P$2+I140*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-677979</v>
       </c>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59227,17 +59223,17 @@
         <v>-1596</v>
       </c>
       <c r="T141" s="4">
-        <f>C141*K$2+D141*L$2+E141*M$2+F141*N$2+G141*O$2+H141*P$2+I141*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-679969</v>
       </c>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59270,17 +59266,17 @@
         <v>-2127</v>
       </c>
       <c r="T142" s="4">
-        <f>C142*K$2+D142*L$2+E142*M$2+F142*N$2+G142*O$2+H142*P$2+I142*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-682072</v>
       </c>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59313,17 +59309,17 @@
         <v>-1335</v>
       </c>
       <c r="T143" s="4">
-        <f>C143*K$2+D143*L$2+E143*M$2+F143*N$2+G143*O$2+H143*P$2+I143*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-689956</v>
       </c>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59356,17 +59352,17 @@
         <v>-1326</v>
       </c>
       <c r="T144" s="4">
-        <f>C144*K$2+D144*L$2+E144*M$2+F144*N$2+G144*O$2+H144*P$2+I144*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-699155</v>
       </c>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59399,17 +59395,17 @@
         <v>-777</v>
       </c>
       <c r="T145" s="4">
-        <f>C145*K$2+D145*L$2+E145*M$2+F145*N$2+G145*O$2+H145*P$2+I145*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-702520</v>
       </c>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
       <c r="W145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59442,17 +59438,17 @@
         <v>-2118</v>
       </c>
       <c r="T146" s="4">
-        <f>C146*K$2+D146*L$2+E146*M$2+F146*N$2+G146*O$2+H146*P$2+I146*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-707888</v>
       </c>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
       <c r="W146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59485,17 +59481,17 @@
         <v>-945</v>
       </c>
       <c r="T147" s="4">
-        <f>C147*K$2+D147*L$2+E147*M$2+F147*N$2+G147*O$2+H147*P$2+I147*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-711750</v>
       </c>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
       <c r="W147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59528,17 +59524,17 @@
         <v>-1047</v>
       </c>
       <c r="T148" s="4">
-        <f>C148*K$2+D148*L$2+E148*M$2+F148*N$2+G148*O$2+H148*P$2+I148*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-727037</v>
       </c>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59571,17 +59567,17 @@
         <v>-1113</v>
       </c>
       <c r="T149" s="4">
-        <f>C149*K$2+D149*L$2+E149*M$2+F149*N$2+G149*O$2+H149*P$2+I149*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-727548</v>
       </c>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59614,17 +59610,17 @@
         <v>-1020</v>
       </c>
       <c r="T150" s="4">
-        <f>C150*K$2+D150*L$2+E150*M$2+F150*N$2+G150*O$2+H150*P$2+I150*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-727574</v>
       </c>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59657,17 +59653,17 @@
         <v>-1734</v>
       </c>
       <c r="T151" s="4">
-        <f>C151*K$2+D151*L$2+E151*M$2+F151*N$2+G151*O$2+H151*P$2+I151*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-748880</v>
       </c>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59700,17 +59696,17 @@
         <v>-1335</v>
       </c>
       <c r="T152" s="4">
-        <f>C152*K$2+D152*L$2+E152*M$2+F152*N$2+G152*O$2+H152*P$2+I152*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-765262</v>
       </c>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
       <c r="W152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59743,17 +59739,17 @@
         <v>-1713</v>
       </c>
       <c r="T153" s="4">
-        <f>C153*K$2+D153*L$2+E153*M$2+F153*N$2+G153*O$2+H153*P$2+I153*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-780724</v>
       </c>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59786,17 +59782,17 @@
         <v>-1413</v>
       </c>
       <c r="T154" s="4">
-        <f>C154*K$2+D154*L$2+E154*M$2+F154*N$2+G154*O$2+H154*P$2+I154*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-796221</v>
       </c>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59829,17 +59825,17 @@
         <v>-1467</v>
       </c>
       <c r="T155" s="4">
-        <f>C155*K$2+D155*L$2+E155*M$2+F155*N$2+G155*O$2+H155*P$2+I155*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-797363</v>
       </c>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59872,17 +59868,17 @@
         <v>-1455</v>
       </c>
       <c r="T156" s="4">
-        <f>C156*K$2+D156*L$2+E156*M$2+F156*N$2+G156*O$2+H156*P$2+I156*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-805072</v>
       </c>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
       <c r="W156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59915,17 +59911,17 @@
         <v>-2220</v>
       </c>
       <c r="T157" s="4">
-        <f>C157*K$2+D157*L$2+E157*M$2+F157*N$2+G157*O$2+H157*P$2+I157*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-870249</v>
       </c>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
       <c r="W157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>656372</v>
       </c>
     </row>
@@ -59958,17 +59954,17 @@
         <v>-1197</v>
       </c>
       <c r="T158" s="4">
-        <f>C158*K$2+D158*L$2+E158*M$2+F158*N$2+G158*O$2+H158*P$2+I158*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-637631</v>
       </c>
       <c r="U158" s="4"/>
       <c r="V158" s="4"/>
       <c r="W158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18741</v>
       </c>
     </row>
@@ -60001,17 +59997,17 @@
         <v>-813</v>
       </c>
       <c r="T159" s="4">
-        <f>C159*K$2+D159*L$2+E159*M$2+F159*N$2+G159*O$2+H159*P$2+I159*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-631981</v>
       </c>
       <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24391</v>
       </c>
     </row>
@@ -60044,17 +60040,17 @@
         <v>-672</v>
       </c>
       <c r="T160" s="4">
-        <f>C160*K$2+D160*L$2+E160*M$2+F160*N$2+G160*O$2+H160*P$2+I160*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-629660</v>
       </c>
       <c r="U160" s="4"/>
       <c r="V160" s="4"/>
       <c r="W160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26712</v>
       </c>
     </row>
@@ -60087,17 +60083,17 @@
         <v>-1593</v>
       </c>
       <c r="T161" s="4">
-        <f>C161*K$2+D161*L$2+E161*M$2+F161*N$2+G161*O$2+H161*P$2+I161*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-629137</v>
       </c>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27235</v>
       </c>
     </row>
@@ -60130,17 +60126,17 @@
         <v>-1599</v>
       </c>
       <c r="T162" s="4">
-        <f>C162*K$2+D162*L$2+E162*M$2+F162*N$2+G162*O$2+H162*P$2+I162*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-616736</v>
       </c>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
       <c r="W162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39636</v>
       </c>
     </row>
@@ -60173,17 +60169,17 @@
         <v>-681</v>
       </c>
       <c r="T163" s="4">
-        <f>C163*K$2+D163*L$2+E163*M$2+F163*N$2+G163*O$2+H163*P$2+I163*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-558311</v>
       </c>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
       <c r="W163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>98061</v>
       </c>
     </row>
@@ -60216,17 +60212,17 @@
         <v>-1206</v>
       </c>
       <c r="T164" s="4">
-        <f>C164*K$2+D164*L$2+E164*M$2+F164*N$2+G164*O$2+H164*P$2+I164*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-556299</v>
       </c>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
       <c r="W164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100073</v>
       </c>
     </row>
@@ -60259,17 +60255,17 @@
         <v>-792</v>
       </c>
       <c r="T165" s="4">
-        <f>C165*K$2+D165*L$2+E165*M$2+F165*N$2+G165*O$2+H165*P$2+I165*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-551217</v>
       </c>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
       <c r="W165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>105155</v>
       </c>
     </row>
@@ -60302,17 +60298,17 @@
         <v>-1056</v>
       </c>
       <c r="T166" s="4">
-        <f>C166*K$2+D166*L$2+E166*M$2+F166*N$2+G166*O$2+H166*P$2+I166*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-542660</v>
       </c>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
       <c r="W166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>113712</v>
       </c>
     </row>
@@ -60345,17 +60341,17 @@
         <v>-1602</v>
       </c>
       <c r="T167" s="4">
-        <f>C167*K$2+D167*L$2+E167*M$2+F167*N$2+G167*O$2+H167*P$2+I167*Q$2+R$2</f>
+        <f t="shared" si="7"/>
         <v>-525744</v>
       </c>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
       <c r="W167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>130628</v>
       </c>
     </row>
@@ -60388,17 +60384,17 @@
         <v>-1470</v>
       </c>
       <c r="T168" s="4">
-        <f>C168*K$2+D168*L$2+E168*M$2+F168*N$2+G168*O$2+H168*P$2+I168*Q$2+R$2</f>
+        <f t="shared" ref="T168:T196" si="10">C168*K$2+D168*L$2+E168*M$2+F168*N$2+G168*O$2+H168*P$2+I168*Q$2+R$2</f>
         <v>-524129</v>
       </c>
       <c r="U168" s="4"/>
       <c r="V168" s="4"/>
       <c r="W168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>132243</v>
       </c>
     </row>
@@ -60431,17 +60427,17 @@
         <v>-1206</v>
       </c>
       <c r="T169" s="4">
-        <f>C169*K$2+D169*L$2+E169*M$2+F169*N$2+G169*O$2+H169*P$2+I169*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-518960</v>
       </c>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
       <c r="W169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>137412</v>
       </c>
     </row>
@@ -60474,17 +60470,17 @@
         <v>-546</v>
       </c>
       <c r="T170" s="4">
-        <f>C170*K$2+D170*L$2+E170*M$2+F170*N$2+G170*O$2+H170*P$2+I170*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-515530</v>
       </c>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
       <c r="W170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>140842</v>
       </c>
     </row>
@@ -60517,17 +60513,17 @@
         <v>-1068</v>
       </c>
       <c r="T171" s="4">
-        <f>C171*K$2+D171*L$2+E171*M$2+F171*N$2+G171*O$2+H171*P$2+I171*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-513055</v>
       </c>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
       <c r="W171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>143317</v>
       </c>
     </row>
@@ -60560,17 +60556,17 @@
         <v>-1464</v>
       </c>
       <c r="T172" s="4">
-        <f>C172*K$2+D172*L$2+E172*M$2+F172*N$2+G172*O$2+H172*P$2+I172*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-501877</v>
       </c>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
       <c r="W172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>154495</v>
       </c>
     </row>
@@ -60603,17 +60599,17 @@
         <v>-1413</v>
       </c>
       <c r="T173" s="4">
-        <f>C173*K$2+D173*L$2+E173*M$2+F173*N$2+G173*O$2+H173*P$2+I173*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-478705</v>
       </c>
       <c r="U173" s="4"/>
       <c r="V173" s="4"/>
       <c r="W173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>177667</v>
       </c>
     </row>
@@ -60646,17 +60642,17 @@
         <v>-1992</v>
       </c>
       <c r="T174" s="4">
-        <f>C174*K$2+D174*L$2+E174*M$2+F174*N$2+G174*O$2+H174*P$2+I174*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-455932</v>
       </c>
       <c r="U174" s="4"/>
       <c r="V174" s="4"/>
       <c r="W174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>200440</v>
       </c>
     </row>
@@ -60689,17 +60685,17 @@
         <v>-942</v>
       </c>
       <c r="T175" s="4">
-        <f>C175*K$2+D175*L$2+E175*M$2+F175*N$2+G175*O$2+H175*P$2+I175*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-450463</v>
       </c>
       <c r="U175" s="4"/>
       <c r="V175" s="4"/>
       <c r="W175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>205909</v>
       </c>
     </row>
@@ -60732,17 +60728,17 @@
         <v>-1566</v>
       </c>
       <c r="T176" s="4">
-        <f>C176*K$2+D176*L$2+E176*M$2+F176*N$2+G176*O$2+H176*P$2+I176*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-444695</v>
       </c>
       <c r="U176" s="4"/>
       <c r="V176" s="4"/>
       <c r="W176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>211677</v>
       </c>
     </row>
@@ -60775,17 +60771,17 @@
         <v>-1434</v>
       </c>
       <c r="T177" s="4">
-        <f>C177*K$2+D177*L$2+E177*M$2+F177*N$2+G177*O$2+H177*P$2+I177*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-445462</v>
       </c>
       <c r="U177" s="4"/>
       <c r="V177" s="4"/>
       <c r="W177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>210910</v>
       </c>
     </row>
@@ -60818,17 +60814,17 @@
         <v>-1161</v>
       </c>
       <c r="T178" s="4">
-        <f>C178*K$2+D178*L$2+E178*M$2+F178*N$2+G178*O$2+H178*P$2+I178*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-424387</v>
       </c>
       <c r="U178" s="4"/>
       <c r="V178" s="4"/>
       <c r="W178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>231985</v>
       </c>
     </row>
@@ -60861,17 +60857,17 @@
         <v>-792</v>
       </c>
       <c r="T179" s="4">
-        <f>C179*K$2+D179*L$2+E179*M$2+F179*N$2+G179*O$2+H179*P$2+I179*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-420316</v>
       </c>
       <c r="U179" s="4"/>
       <c r="V179" s="4"/>
       <c r="W179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>236056</v>
       </c>
     </row>
@@ -60904,17 +60900,17 @@
         <v>-522</v>
       </c>
       <c r="T180" s="4">
-        <f>C180*K$2+D180*L$2+E180*M$2+F180*N$2+G180*O$2+H180*P$2+I180*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-419639</v>
       </c>
       <c r="U180" s="4"/>
       <c r="V180" s="4"/>
       <c r="W180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>236733</v>
       </c>
     </row>
@@ -60947,17 +60943,17 @@
         <v>-1599</v>
       </c>
       <c r="T181" s="4">
-        <f>C181*K$2+D181*L$2+E181*M$2+F181*N$2+G181*O$2+H181*P$2+I181*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-411675</v>
       </c>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
       <c r="W181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>244697</v>
       </c>
     </row>
@@ -60990,17 +60986,17 @@
         <v>-588</v>
       </c>
       <c r="T182" s="4">
-        <f>C182*K$2+D182*L$2+E182*M$2+F182*N$2+G182*O$2+H182*P$2+I182*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-396029</v>
       </c>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
       <c r="W182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>260343</v>
       </c>
     </row>
@@ -61033,17 +61029,17 @@
         <v>-1596</v>
       </c>
       <c r="T183" s="4">
-        <f>C183*K$2+D183*L$2+E183*M$2+F183*N$2+G183*O$2+H183*P$2+I183*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-396566</v>
       </c>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
       <c r="W183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>259806</v>
       </c>
     </row>
@@ -61076,17 +61072,17 @@
         <v>-1728</v>
       </c>
       <c r="T184" s="4">
-        <f>C184*K$2+D184*L$2+E184*M$2+F184*N$2+G184*O$2+H184*P$2+I184*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-389502</v>
       </c>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
       <c r="W184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>266870</v>
       </c>
     </row>
@@ -61119,17 +61115,17 @@
         <v>-1860</v>
       </c>
       <c r="T185" s="4">
-        <f>C185*K$2+D185*L$2+E185*M$2+F185*N$2+G185*O$2+H185*P$2+I185*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-369105</v>
       </c>
       <c r="U185" s="4"/>
       <c r="V185" s="4"/>
       <c r="W185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>287267</v>
       </c>
     </row>
@@ -61162,17 +61158,17 @@
         <v>-1074</v>
       </c>
       <c r="T186" s="4">
-        <f>C186*K$2+D186*L$2+E186*M$2+F186*N$2+G186*O$2+H186*P$2+I186*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-361602</v>
       </c>
       <c r="U186" s="4"/>
       <c r="V186" s="4"/>
       <c r="W186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>294770</v>
       </c>
     </row>
@@ -61205,17 +61201,17 @@
         <v>-2367</v>
       </c>
       <c r="T187" s="4">
-        <f>C187*K$2+D187*L$2+E187*M$2+F187*N$2+G187*O$2+H187*P$2+I187*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-352763</v>
       </c>
       <c r="U187" s="4"/>
       <c r="V187" s="4"/>
       <c r="W187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>303609</v>
       </c>
     </row>
@@ -61248,17 +61244,17 @@
         <v>-2112</v>
       </c>
       <c r="T188" s="4">
-        <f>C188*K$2+D188*L$2+E188*M$2+F188*N$2+G188*O$2+H188*P$2+I188*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-322543</v>
       </c>
       <c r="U188" s="4"/>
       <c r="V188" s="4"/>
       <c r="W188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>333829</v>
       </c>
     </row>
@@ -61291,17 +61287,17 @@
         <v>-1068</v>
       </c>
       <c r="T189" s="4">
-        <f>C189*K$2+D189*L$2+E189*M$2+F189*N$2+G189*O$2+H189*P$2+I189*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-311639</v>
       </c>
       <c r="U189" s="4"/>
       <c r="V189" s="4"/>
       <c r="W189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>344733</v>
       </c>
     </row>
@@ -61334,17 +61330,17 @@
         <v>-654</v>
       </c>
       <c r="T190" s="4">
-        <f>C190*K$2+D190*L$2+E190*M$2+F190*N$2+G190*O$2+H190*P$2+I190*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-305694</v>
       </c>
       <c r="U190" s="4"/>
       <c r="V190" s="4"/>
       <c r="W190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>350678</v>
       </c>
     </row>
@@ -61377,17 +61373,17 @@
         <v>-129</v>
       </c>
       <c r="T191" s="4">
-        <f>C191*K$2+D191*L$2+E191*M$2+F191*N$2+G191*O$2+H191*P$2+I191*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-299117</v>
       </c>
       <c r="U191" s="4"/>
       <c r="V191" s="4"/>
       <c r="W191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>357255</v>
       </c>
     </row>
@@ -61420,17 +61416,17 @@
         <v>-909</v>
       </c>
       <c r="T192" s="4">
-        <f>C192*K$2+D192*L$2+E192*M$2+F192*N$2+G192*O$2+H192*P$2+I192*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-296569</v>
       </c>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
       <c r="W192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>359803</v>
       </c>
     </row>
@@ -61463,17 +61459,17 @@
         <v>-654</v>
       </c>
       <c r="T193" s="4">
-        <f>C193*K$2+D193*L$2+E193*M$2+F193*N$2+G193*O$2+H193*P$2+I193*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-295738</v>
       </c>
       <c r="U193" s="4"/>
       <c r="V193" s="4"/>
       <c r="W193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>360634</v>
       </c>
     </row>
@@ -61506,17 +61502,17 @@
         <v>-681</v>
       </c>
       <c r="T194" s="4">
-        <f>C194*K$2+D194*L$2+E194*M$2+F194*N$2+G194*O$2+H194*P$2+I194*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-265840</v>
       </c>
       <c r="U194" s="4"/>
       <c r="V194" s="4"/>
       <c r="W194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>390532</v>
       </c>
     </row>
@@ -61549,17 +61545,17 @@
         <v>-282</v>
       </c>
       <c r="T195" s="4">
-        <f>C195*K$2+D195*L$2+E195*M$2+F195*N$2+G195*O$2+H195*P$2+I195*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-256961</v>
       </c>
       <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>399411</v>
       </c>
     </row>
@@ -61592,17 +61588,17 @@
         <v>-1329</v>
       </c>
       <c r="T196" s="4">
-        <f>C196*K$2+D196*L$2+E196*M$2+F196*N$2+G196*O$2+H196*P$2+I196*Q$2+R$2</f>
+        <f t="shared" si="10"/>
         <v>-230140</v>
       </c>
       <c r="U196" s="4"/>
       <c r="V196" s="4"/>
       <c r="W196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>426232</v>
       </c>
     </row>
